--- a/outputs/ML_Results/mode_MNLR/Wien.xlsx
+++ b/outputs/ML_Results/mode_MNLR/Wien.xlsx
@@ -8,12 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="summ64" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ14" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ22" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ22" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ5" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="summ1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ10" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ15" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ0" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ10" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ15" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,22 +485,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.039093465808244</v>
+        <v>1.040638651795168</v>
       </c>
       <c r="C2" t="n">
-        <v>1.662559687698112</v>
+        <v>1.636502350418703</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3406770736462432</v>
+        <v>-0.3247902388100397</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5511046046316397</v>
+        <v>0.5417584581174028</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08224564875356855</v>
+        <v>0.03246808787643216</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6351391905547135</v>
+        <v>0.6204004664021725</v>
       </c>
     </row>
     <row r="3">
@@ -509,22 +510,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02563175689817677</v>
+        <v>0.02574199049994857</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04917761866519246</v>
+        <v>-0.04969712063372455</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2422138719514181</v>
+        <v>-0.2406686548547473</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8784701599141327</v>
+        <v>0.9240910805161687</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6931786902234165</v>
+        <v>0.7065649956424331</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02252639305584641</v>
+        <v>0.01903734103808827</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +535,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1916004970661181</v>
+        <v>-0.1922981750156744</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002165358893417796</v>
+        <v>-0.009022486969779642</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4878577641783461</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>-0.4861903212397222</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6414572743850688</v>
+      </c>
       <c r="F4" t="n">
-        <v>0.9805387706527204</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>0.9721067076994593</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03946217160376721</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -555,22 +560,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3133823264464389</v>
+        <v>-0.3136901399049357</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2131421748663609</v>
+        <v>-0.2165650872401845</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3087433775434487</v>
+        <v>-0.3062121660731891</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3832810723449306</v>
+        <v>0.2964570119641324</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2899775991274647</v>
+        <v>0.2458577412581638</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07596132445705862</v>
+        <v>0.04087644692603876</v>
       </c>
     </row>
     <row r="6">
@@ -580,22 +585,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6843888295921609</v>
+        <v>0.6847075181463854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09731262131434373</v>
+        <v>0.1397761352865939</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1480722889485363</v>
+        <v>0.1408247600541708</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2993790506220876</v>
+        <v>0.04332386736432111</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7942742755539511</v>
+        <v>0.7149676602883341</v>
       </c>
       <c r="G6" t="n">
-        <v>0.446438734560105</v>
+        <v>0.4418366937218282</v>
       </c>
     </row>
     <row r="7">
@@ -605,22 +610,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.496511336051157</v>
+        <v>-0.4965050822086819</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5185678299331469</v>
+        <v>-0.5218281731975504</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5033240371471971</v>
+        <v>-0.5005812593873055</v>
       </c>
       <c r="E7" t="n">
-        <v>0.311412624511747</v>
+        <v>0.05630724009618385</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002377348996864701</v>
+        <v>0.0004141198589174366</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0009306874648574493</v>
+        <v>8.580477433417686e-05</v>
       </c>
     </row>
     <row r="8">
@@ -630,20 +635,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4710186639851787</v>
+        <v>0.4712938722049083</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01362425815667857</v>
+        <v>-0.00264075105364618</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0721699793737523</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>-0.07486489117891348</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1729727687347454</v>
+      </c>
       <c r="F8" t="n">
-        <v>0.9362223763189668</v>
+        <v>0.9877895501852095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.54554291045885</v>
+        <v>0.5704892635969432</v>
       </c>
     </row>
     <row r="9">
@@ -653,20 +660,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4850319295390216</v>
+        <v>0.4845238355554582</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2274692230902383</v>
+        <v>0.2311323702975878</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09918448048481315</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>-0.1006534726608614</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.09680613333648237</v>
+      </c>
       <c r="F9" t="n">
-        <v>0.1529239558606439</v>
+        <v>0.1349329392500923</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4490576571051359</v>
+        <v>0.4063108918343386</v>
       </c>
     </row>
     <row r="10">
@@ -676,22 +685,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3804297793424443</v>
+        <v>-0.3809386966810768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06698544977590629</v>
+        <v>0.06824200790571051</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09666769617980696</v>
+        <v>0.09595062009872247</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02491916801400864</v>
+        <v>0.07457676203322115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5291828763930453</v>
+        <v>0.513563822779056</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2294645087977105</v>
+        <v>0.1945619506246722</v>
       </c>
     </row>
     <row r="11">
@@ -701,22 +710,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.295038069656107</v>
+        <v>1.294096848879349</v>
       </c>
       <c r="C11" t="n">
-        <v>1.515595457965902</v>
+        <v>1.511884107132792</v>
       </c>
       <c r="D11" t="n">
-        <v>1.391697053515831</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.964384671075084e-06</v>
-      </c>
+        <v>1.391148830283799</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1.423227064176865e-16</v>
+        <v>6.172083037806426e-27</v>
       </c>
       <c r="G11" t="n">
-        <v>9.011745563591247e-11</v>
+        <v>7.735074402915055e-29</v>
       </c>
     </row>
     <row r="12">
@@ -726,20 +733,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7824170492598331</v>
+        <v>0.7813251895958252</v>
       </c>
       <c r="C12" t="n">
-        <v>1.257244794481384</v>
+        <v>1.260506893319711</v>
       </c>
       <c r="D12" t="n">
-        <v>2.114768949266523</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>2.111175035109977</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2694746183634752</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.160634231848454e-06</v>
+        <v>2.218606582690348e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>9.452134373053772e-25</v>
+        <v>1.29473210858048e-29</v>
       </c>
     </row>
     <row r="13">
@@ -749,22 +758,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.80369280107146</v>
+        <v>0.8038866215269271</v>
       </c>
       <c r="C13" t="n">
-        <v>1.115895107387548</v>
+        <v>1.121602527084667</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7919834588862142</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.107339268432636</v>
-      </c>
+        <v>0.7879540720007586</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>3.390209893349147e-09</v>
+        <v>4.857901578612011e-12</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001469054307771453</v>
+        <v>8.781079348605304e-08</v>
       </c>
     </row>
     <row r="14">
@@ -774,23 +781,21 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.591316186098584</v>
+        <v>1.590362689791553</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7410261970324447</v>
+        <v>0.7386035298359226</v>
       </c>
       <c r="D14" t="n">
-        <v>1.915637128148212</v>
+        <v>1.914327436636515</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002199468986899745</v>
+        <v>0.007149252780714938</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0002681640889525036</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5.335182351937903e-23</v>
-      </c>
+        <v>2.391220157134771e-05</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -799,22 +804,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6799521568556838</v>
+        <v>0.6788840695035437</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5509316393430467</v>
+        <v>0.5437576375612274</v>
       </c>
       <c r="D15" t="n">
-        <v>0.777046082184599</v>
+        <v>0.7787741988735489</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3440724563448565</v>
+        <v>0.420900020280169</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2540293882125667</v>
+        <v>0.2591465996918648</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03682113391764905</v>
+        <v>0.02340180196327841</v>
       </c>
     </row>
     <row r="16">
@@ -824,22 +829,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1332483746711403</v>
+        <v>-0.1318864441117191</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4935134175234803</v>
+        <v>0.5037994605003145</v>
       </c>
       <c r="D16" t="n">
-        <v>0.359011544336542</v>
+        <v>0.3526934883199851</v>
       </c>
       <c r="E16" t="n">
-        <v>0.30660809385777</v>
+        <v>0.6234026525854848</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002862373607740305</v>
+        <v>0.002109158822968673</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01142097432057943</v>
+        <v>0.01030385419327013</v>
       </c>
     </row>
     <row r="17">
@@ -849,18 +854,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3299219781153606</v>
+        <v>0.3291692582424869</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4416985895394714</v>
+        <v>-0.4369538486675089</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9921275759007775</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+        <v>-0.9922799339652206</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9999999999999987</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9999999721301824</v>
+      </c>
       <c r="G17" t="n">
-        <v>0.9999999684805178</v>
+        <v>0.9999999999999948</v>
       </c>
     </row>
     <row r="18">
@@ -870,22 +879,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.191192105776381</v>
+        <v>-0.1910134127564162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.187264356664736</v>
+        <v>0.193924182647007</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4938876395347086</v>
+        <v>0.4879732063502493</v>
       </c>
       <c r="E18" t="n">
-        <v>0.494232812481607</v>
+        <v>0.3404134570752487</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2935418368158529</v>
+        <v>0.2202286074170323</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0007042833453231994</v>
+        <v>1.405816926869316e-07</v>
       </c>
     </row>
     <row r="19">
@@ -895,22 +904,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5785048171147263</v>
+        <v>0.5786423877752231</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06636248092842814</v>
+        <v>0.05112165219860911</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4585675801533524</v>
+        <v>0.4630357722947616</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06789544442039386</v>
+        <v>0.0681317690010038</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7944255473498842</v>
+        <v>0.8363037861527345</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01192349026850243</v>
+        <v>0.002779499817967763</v>
       </c>
     </row>
     <row r="20">
@@ -920,22 +929,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1353632193391724</v>
+        <v>0.1288006462665391</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5927883533109495</v>
+        <v>-0.4364211636838481</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06612712491542504</v>
+        <v>0.009774535848625126</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7877240017428437</v>
+        <v>0.7564200207682281</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07376526724673892</v>
+        <v>0.1614054290864149</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7685835535222977</v>
+        <v>0.9587253858602056</v>
       </c>
     </row>
     <row r="21">
@@ -945,22 +954,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9074806346103212</v>
+        <v>0.9129875635594036</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1257482677214916</v>
+        <v>-0.02349865021037084</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3986928699349254</v>
+        <v>0.453822011123754</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1016136418355936</v>
+        <v>0.08132241904927758</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7734634580540211</v>
+        <v>0.9560821312211645</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1754420273597125</v>
+        <v>0.138473878618187</v>
       </c>
     </row>
     <row r="22">
@@ -970,22 +979,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.426774111456012</v>
+        <v>-1.41988428048417</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6537739484646073</v>
+        <v>-0.7935237442276201</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.289636342957246</v>
+        <v>-1.235074781603191</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01261593892311424</v>
+        <v>0.01572010165101833</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04899280811747103</v>
+        <v>0.01194785242066949</v>
       </c>
       <c r="G22" t="n">
-        <v>2.861143329956843e-07</v>
+        <v>8.432790666558189e-07</v>
       </c>
     </row>
     <row r="23">
@@ -995,18 +1004,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3299120998418833</v>
+        <v>0.3291628863717324</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4416979169105578</v>
+        <v>-0.436951083848996</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9921280490067073</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+        <v>-0.9922795663131079</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9999999999999991</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>0.9999999678019323</v>
+        <v>0.9999999999999948</v>
       </c>
     </row>
     <row r="24">
@@ -1016,447 +1027,420 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1281968139155721</v>
+        <v>0.1288427535127435</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09555136400519022</v>
+        <v>-0.1062701648690011</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2261002169437639</v>
+        <v>0.2912583600340239</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7345403592997807</v>
+        <v>0.5614431469816439</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6731479344077845</v>
+        <v>0.4122083716057133</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1798593908813699</v>
+        <v>0.003065531640600017</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1290616843600105</v>
+        <v>1.133410376060074</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1655910621881327</v>
+        <v>0.1294064922698288</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3125098022352054</v>
+        <v>0.4758630527037531</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5790590802807716</v>
+        <v>1.318190941819279e-08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.228900173268218</v>
+        <v>0.3110159587513286</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002183776528565299</v>
+        <v>1.268768998494237e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.133356543398425</v>
+        <v>-0.4587844772414293</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1203571571865061</v>
+        <v>-0.538138749896512</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4800478989753769</v>
+        <v>-0.5974525481861052</v>
       </c>
       <c r="E26" t="n">
-        <v>6.037593104334106e-09</v>
+        <v>0.4460907283731552</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3500352348129112</v>
+        <v>0.1505287390758641</v>
       </c>
       <c r="G26" t="n">
-        <v>1.949302512759796e-06</v>
+        <v>0.0462488570471363</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.4588120384033478</v>
+        <v>-0.2341658010910105</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5212384962156136</v>
+        <v>0.1264866135260443</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.6015771799136641</v>
+        <v>0.3292517168059425</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4743420380662302</v>
+        <v>0.0939758471904617</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1709021949438775</v>
+        <v>0.1868996700432116</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04465540978522451</v>
+        <v>6.156092740505038e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.2335709421605764</v>
+        <v>-0.007040506050766845</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1231948843711077</v>
+        <v>-0.009109480767114693</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3294817659896492</v>
+        <v>-0.01480322805730425</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07391647280797198</v>
+        <v>0.270448773254824</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1987420019167119</v>
+        <v>0.02269337157908195</v>
       </c>
       <c r="G28" t="n">
-        <v>1.283265066877378e-06</v>
+        <v>6.194643387403702e-46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.00703381841236784</v>
+        <v>-0.0002067419240975473</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.009313895127590836</v>
+        <v>-0.001000897520476071</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01479484347561507</v>
+        <v>-2.799001600146442e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4653230263829977</v>
+        <v>3.836258772860872e-26</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04368164698691963</v>
+        <v>2.473010068959459e-187</v>
       </c>
       <c r="G29" t="n">
-        <v>0.003825754495983871</v>
+        <v>0.5674280005663248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0002067650575835112</v>
+        <v>-1.496278946097655</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001002621803924724</v>
+        <v>-1.313462464386229</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.796748355536304e-06</v>
+        <v>-1.761367418150549</v>
       </c>
       <c r="E30" t="n">
-        <v>1.588219503426105e-26</v>
+        <v>3.337596720558286e-18</v>
       </c>
       <c r="F30" t="n">
-        <v>9.572994754154153e-185</v>
+        <v>2.455881366868903e-29</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4948350098556071</v>
+        <v>4.482422998790806e-91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.495279070684899</v>
+        <v>0.04363442982058541</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.301408729919486</v>
+        <v>-0.1112033081899037</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.764886835883982</v>
+        <v>-0.1212249768075312</v>
       </c>
       <c r="E31" t="n">
-        <v>8.29296461685075e-23</v>
+        <v>0.3490373590929003</v>
       </c>
       <c r="F31" t="n">
-        <v>1.124999610815509e-31</v>
+        <v>0.01480543104912809</v>
       </c>
       <c r="G31" t="n">
-        <v>2.031420118406547e-98</v>
+        <v>0.0002857681341540633</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.04364881961837993</v>
+        <v>3.350006352634498e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.111723877389578</v>
+        <v>3.597766472440257e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1208208875501816</v>
+        <v>6.791450087499168e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.478680380855864</v>
+        <v>0.3664992596831266</v>
       </c>
       <c r="F32" t="n">
-        <v>0.002607120989309387</v>
+        <v>0.07408246899332668</v>
       </c>
       <c r="G32" t="n">
-        <v>1.664739139212221e-06</v>
+        <v>0.0001164627961169739</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.354036547360091e-05</v>
+        <v>0.02061649448406965</v>
       </c>
       <c r="C33" t="n">
-        <v>3.54169309100215e-05</v>
+        <v>-0.02528541946818865</v>
       </c>
       <c r="D33" t="n">
-        <v>6.811035390951286e-05</v>
+        <v>-0.02748459879380247</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2747895289435487</v>
+        <v>0.6983989988263501</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07460106791683253</v>
+        <v>0.4176487048494045</v>
       </c>
       <c r="G33" t="n">
-        <v>2.285834747367985e-05</v>
+        <v>0.3069643920096258</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02074470745038382</v>
+        <v>-0.09229343372667133</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.02594538145374154</v>
+        <v>-0.1193769580834175</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.02766535239623261</v>
+        <v>-0.1250795818848349</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6671044453420745</v>
+        <v>0.0132827762998686</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4008346854151743</v>
+        <v>4.617269797993223e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2847701136727224</v>
+        <v>1.106458536670307e-08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.09230982920249411</v>
+        <v>-6.392054359468857e-09</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1189260471419986</v>
+        <v>6.518327862493513e-10</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1248732157325896</v>
+        <v>7.063867779958249e-09</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003190101689790433</v>
+        <v>0.6879946328119564</v>
       </c>
       <c r="F35" t="n">
-        <v>4.885124881397559e-07</v>
+        <v>0.9210736303627385</v>
       </c>
       <c r="G35" t="n">
-        <v>1.597498217509215e-19</v>
+        <v>0.3146218675550172</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-6.347199553201998e-09</v>
+        <v>-0.02071765162769957</v>
       </c>
       <c r="C36" t="n">
-        <v>8.982575795727984e-10</v>
+        <v>0.008888452399708438</v>
       </c>
       <c r="D36" t="n">
-        <v>7.006390762728497e-09</v>
+        <v>0.001249172863376527</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4478228439923698</v>
+        <v>0.08289292988304392</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8860135714908584</v>
+        <v>0.01628900864335758</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03410050319870074</v>
+        <v>0.761263791389106</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02071771700504728</v>
+        <v>-0.004685609393372837</v>
       </c>
       <c r="C37" t="n">
-        <v>0.008824385741357625</v>
+        <v>0.01197498060367002</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001350867983003025</v>
+        <v>0.004939590113283336</v>
       </c>
       <c r="E37" t="n">
-        <v>0.004502084341821031</v>
+        <v>0.4609731867427754</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05801159052952869</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.7108927739996904</v>
-      </c>
+        <v>0.04688184857839527</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.004694044194413707</v>
+        <v>3.935905784843373</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01196960066722814</v>
+        <v>-0.2390603453015453</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004994595021146781</v>
+        <v>-0.3100554219272615</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5881703837393282</v>
+        <v>0.001034606030396197</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02113529243744691</v>
+        <v>0.8142430160706593</v>
       </c>
       <c r="G38" t="n">
-        <v>0.227627022756785</v>
+        <v>0.6697490010961888</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.930241453760074</v>
+        <v>-0.3276135767606099</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2073343636309856</v>
+        <v>-0.1788800865168119</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3250891086959094</v>
+        <v>-0.6690359067822972</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01290410025893803</v>
+        <v>0.7945636853539225</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8356264746496767</v>
+        <v>0.7917913518251878</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7136118721664941</v>
+        <v>0.2718252391462792</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.327973107208306</v>
+        <v>-2.351266397024082</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1710627820583427</v>
+        <v>-0.8623928755481645</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.6780446617857491</v>
+        <v>0.3010827523276017</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6609313524589628</v>
+        <v>0.2470291526751526</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7647332400785005</v>
+        <v>0.195421579459142</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1746018378120726</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-2.356378248317609</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-0.9069702697038132</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.3075047417478106</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.002885730425758964</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1688511661510673</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.4008057762246638</v>
+        <v>0.6182759897196048</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1522,20 +1506,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.773964065109951</v>
+        <v>1.415979891905266</v>
       </c>
       <c r="C2" t="n">
-        <v>1.980536362000703</v>
+        <v>2.046329894493088</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.03348425693050582</v>
+        <v>0.6586911520088381</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6092442888500329</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>0.4041374483432553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03340280834222985</v>
+      </c>
       <c r="G2" t="n">
-        <v>0.9084981692142245</v>
+        <v>0.4444698400568706</v>
       </c>
     </row>
     <row r="3">
@@ -1545,22 +1531,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.111784565516654</v>
+        <v>-0.07280032306209065</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0648986535102456</v>
+        <v>-0.09134708830731447</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1863963697221387</v>
+        <v>-0.2401123036630693</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6762122838441618</v>
+        <v>0.7036147094476768</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6514336752563258</v>
+        <v>0.3896897318781931</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1383371498233167</v>
+        <v>0.0001173848951870655</v>
       </c>
     </row>
     <row r="4">
@@ -1570,22 +1556,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08883055664062738</v>
+        <v>-0.3403943206974293</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.08787640745916783</v>
+        <v>-0.1218375041634622</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6047642147888097</v>
+        <v>-0.6333114990090234</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9572177262572359</v>
+        <v>0.05043276827429095</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6172399282077523</v>
+        <v>0.5599774156807301</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01640434102538929</v>
+        <v>0.0001604029129446356</v>
       </c>
     </row>
     <row r="5">
@@ -1595,22 +1581,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1065382033273853</v>
+        <v>-0.2133865715664486</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2118510482397651</v>
+        <v>-0.2221444485158227</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.423644464312687</v>
+        <v>-0.2453500440915191</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8772657575715471</v>
+        <v>0.5371054963235107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09195403728055269</v>
+        <v>0.2483944119314039</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001164981124391222</v>
+        <v>0.1731400145625236</v>
       </c>
     </row>
     <row r="6">
@@ -1620,20 +1606,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5779609596431444</v>
+        <v>0.452106904636877</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04681354046875234</v>
+        <v>0.1602965345187133</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08727468319116</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>0.1496435956833084</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.229579335942128</v>
+      </c>
       <c r="F6" t="n">
-        <v>0.8919935434110537</v>
+        <v>0.668538473155324</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4931665795468333</v>
+        <v>0.4404073181321346</v>
       </c>
     </row>
     <row r="7">
@@ -1643,20 +1631,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4431452366052584</v>
+        <v>-0.5454090722635442</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5684188114470298</v>
+        <v>-0.5915702516427235</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6428135362648884</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>-0.5556166208498644</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01756012351958581</v>
+      </c>
       <c r="F7" t="n">
-        <v>0.003955055963903401</v>
+        <v>2.739308088197808e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>1.155176353037677e-05</v>
+        <v>6.984229248893935e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1666,20 +1656,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4150298754062438</v>
+        <v>0.504598690900564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07320798754088444</v>
+        <v>0.04808570168442351</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01964417062099108</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>-0.01689064394882989</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02239298508755954</v>
+      </c>
       <c r="F8" t="n">
-        <v>0.6815404055907436</v>
+        <v>0.7842321756001557</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8598406177756195</v>
+        <v>0.9019301643691582</v>
       </c>
     </row>
     <row r="9">
@@ -1689,22 +1681,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.435036509006529</v>
+        <v>0.3973328562112501</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1775059284434129</v>
+        <v>0.1395297911425483</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1412965350338411</v>
+        <v>-0.1139681167697315</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003418356095409285</v>
+        <v>1.691651874037462e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2580470707209995</v>
+        <v>0.3797274530650292</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2589243169780031</v>
+        <v>0.3660624656070495</v>
       </c>
     </row>
     <row r="10">
@@ -1714,22 +1706,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3512755165348602</v>
+        <v>-0.2996555903658</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05612879059560873</v>
+        <v>0.06504871192799661</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09642295769194785</v>
+        <v>0.1181234997803548</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2796578713366895</v>
+        <v>0.06014519796122492</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5927764615937402</v>
+        <v>0.5396566825391309</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2363316228831936</v>
+        <v>0.1607646556176104</v>
       </c>
     </row>
     <row r="11">
@@ -1739,21 +1731,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.370032503495134</v>
+        <v>1.348587782209959</v>
       </c>
       <c r="C11" t="n">
-        <v>1.644667694935571</v>
+        <v>1.56402961999122</v>
       </c>
       <c r="D11" t="n">
-        <v>1.462329000864732</v>
+        <v>1.318708393422431</v>
       </c>
       <c r="E11" t="n">
-        <v>1.03987386500663e-10</v>
+        <v>6.616426126206676e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>3.879241862311623e-25</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>2.689977948023431e-20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.191410336860843e-15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1762,22 +1756,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9038257532192708</v>
+        <v>0.4254531239903013</v>
       </c>
       <c r="C12" t="n">
-        <v>1.456738722071025</v>
+        <v>1.294580163101587</v>
       </c>
       <c r="D12" t="n">
-        <v>2.255994226468367</v>
+        <v>2.076280175420939</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3381024863714501</v>
+        <v>0.3377794670960936</v>
       </c>
       <c r="F12" t="n">
-        <v>1.185731587352082e-09</v>
+        <v>5.593530455190289e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>4.044690558301416e-42</v>
+        <v>4.151948106104972e-19</v>
       </c>
     </row>
     <row r="13">
@@ -1787,22 +1781,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8959704677624361</v>
+        <v>0.9870921118782069</v>
       </c>
       <c r="C13" t="n">
-        <v>1.224202330924068</v>
+        <v>1.190383965653057</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7789915918441008</v>
+        <v>0.7130167348964235</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1340274689811153</v>
+        <v>0.001179451191036899</v>
       </c>
       <c r="F13" t="n">
-        <v>1.31426495216891e-09</v>
+        <v>1.275931548718435e-11</v>
       </c>
       <c r="G13" t="n">
-        <v>8.103366773171401e-20</v>
+        <v>7.724796150323412e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1812,22 +1806,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.757011073187048</v>
+        <v>1.595612996446215</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8021888237414264</v>
+        <v>0.7232536177123936</v>
       </c>
       <c r="D14" t="n">
-        <v>1.963087378051115</v>
+        <v>1.890134661271508</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0005320744326612134</v>
+        <v>9.821681609445943e-08</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0007386147779296224</v>
+        <v>0.0002485869832221849</v>
       </c>
       <c r="G14" t="n">
-        <v>3.442092296791504e-82</v>
+        <v>6.938152451452065e-26</v>
       </c>
     </row>
     <row r="15">
@@ -1837,20 +1831,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8925975203368817</v>
+        <v>0.9588212847511565</v>
       </c>
       <c r="C15" t="n">
-        <v>1.050836240169243</v>
+        <v>1.273186261532218</v>
       </c>
       <c r="D15" t="n">
-        <v>0.538023488837916</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>0.811587394277474</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1637858648196308</v>
+      </c>
       <c r="F15" t="n">
-        <v>0.01539067443229995</v>
+        <v>0.006076939621141367</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0003063758052421115</v>
+        <v>0.02647674912581288</v>
       </c>
     </row>
     <row r="16">
@@ -1860,20 +1856,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1045772427888586</v>
+        <v>-0.1323454494492023</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5925838881049199</v>
+        <v>0.5097767440210268</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3544693587588201</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
+        <v>0.2671005481690073</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.622054689353605</v>
+      </c>
       <c r="F16" t="n">
-        <v>0.0002024327777887882</v>
+        <v>0.002204299958591891</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002711734909035825</v>
+        <v>0.06347343122412347</v>
       </c>
     </row>
     <row r="17">
@@ -1883,18 +1881,18 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1175018132537947</v>
+        <v>0.4074992772032664</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7137799234106972</v>
+        <v>-0.5729942282924804</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.13050323747988</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>0.9999999999999984</v>
-      </c>
+        <v>-0.9522214677399987</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.999999998298248</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1904,22 +1902,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3720981394554085</v>
+        <v>-0.295354963493913</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1849053836855925</v>
+        <v>0.1499426662136627</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4026776043935884</v>
+        <v>0.5250704096561561</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0392100090010932</v>
+        <v>0.2770885389255741</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3094802517234059</v>
+        <v>0.4109281007615049</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005849900001954971</v>
+        <v>0.0003638257617561662</v>
       </c>
     </row>
     <row r="19">
@@ -1929,20 +1927,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6860537366625818</v>
+        <v>0.7994241066328902</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1472778426141765</v>
+        <v>0.06969389266426548</v>
       </c>
       <c r="D19" t="n">
-        <v>0.672005440224105</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
+        <v>0.6022136555902968</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.02272352765303292</v>
+      </c>
       <c r="F19" t="n">
-        <v>0.5786608684222971</v>
+        <v>0.7933756993179127</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0003150499063368559</v>
+        <v>0.002574405535672798</v>
       </c>
     </row>
     <row r="20">
@@ -1952,22 +1952,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4330594561088131</v>
+        <v>0.2895877953826338</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.6387442699750873</v>
+        <v>-0.5326656284120832</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07049070698678754</v>
+        <v>0.09034430965177391</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7271333825744672</v>
+        <v>0.545590671004156</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02496601258159297</v>
+        <v>0.118676842006005</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7045466842626236</v>
+        <v>0.7131636617236343</v>
       </c>
     </row>
     <row r="21">
@@ -1977,20 +1977,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6135255595184266</v>
+        <v>0.9536351816693149</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1511525956006704</v>
+        <v>0.1043697166331193</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2956884247538428</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>0.2844173708338927</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.07567416326186734</v>
+      </c>
       <c r="F21" t="n">
-        <v>0.7269355666545532</v>
+        <v>0.8084626542202553</v>
       </c>
       <c r="G21" t="n">
-        <v>0.344625926431778</v>
+        <v>0.3496167891312412</v>
       </c>
     </row>
     <row r="22">
@@ -2000,22 +2002,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.794271940420133</v>
+        <v>-1.338356536492354</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5641522501706941</v>
+        <v>-0.6249520177050882</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.295632689687782</v>
+        <v>-1.21358437529682</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1167988204888931</v>
+        <v>0.01693468411469942</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07645851018645675</v>
+        <v>0.04233159652894604</v>
       </c>
       <c r="G22" t="n">
-        <v>5.060146489636482e-07</v>
+        <v>6.709900176781834e-07</v>
       </c>
     </row>
     <row r="23">
@@ -2025,20 +2027,18 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.117499983045486</v>
+        <v>0.4074949065979165</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7137801925027937</v>
+        <v>-0.5729935547436782</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.13050420906645</v>
+        <v>-0.9522215005613339</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999999999994</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9999999999999984</v>
-      </c>
+        <v>0.9999999933854894</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2048,441 +2048,422 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.05092652243310436</v>
+        <v>0.1660155011152995</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01673153033475756</v>
+        <v>0.0302682186298168</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1632841571372912</v>
+        <v>0.3403393533007161</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9010563650437237</v>
+        <v>0.4474594746015952</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9365913424295068</v>
+        <v>0.814424708642521</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3134531690889438</v>
+        <v>0.0005705800157199808</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2032347383552563</v>
+        <v>1.111504678205202</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1307827207117234</v>
+        <v>0.1152896981495565</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3327751334038803</v>
+        <v>0.4965115522343082</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4901028907400967</v>
+        <v>2.14627045871772e-08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.340604604148938</v>
+        <v>0.3666687136276811</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001033440570726126</v>
+        <v>7.478639736884826e-07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.081011483187441</v>
+        <v>-0.5130915534921447</v>
       </c>
       <c r="C26" t="n">
-        <v>0.11055608842301</v>
+        <v>-0.8208538955014434</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4868145146673101</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>-0.5217854225593644</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4190322968437648</v>
+      </c>
       <c r="F26" t="n">
-        <v>0.3613152163499896</v>
+        <v>0.02813145572805952</v>
       </c>
       <c r="G26" t="n">
-        <v>1.234823673946104e-07</v>
+        <v>0.07524846548510532</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.150748352408471</v>
+        <v>-0.356066891885079</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9040890873102063</v>
+        <v>0.1043886622082214</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.7914529439207545</v>
+        <v>0.380178744963136</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2334213286280448</v>
+        <v>0.009144612436993755</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01921974132471473</v>
+        <v>0.2732017525294023</v>
       </c>
       <c r="G27" t="n">
-        <v>0.007673593007496799</v>
+        <v>1.224781035912967e-07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.3094209245570685</v>
+        <v>5.792066552892419e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0.114932389544244</v>
+        <v>-0.007659569108455304</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3370361155312992</v>
+        <v>-0.01446546821984998</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004471263214156152</v>
+        <v>0.9935509590703335</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1807859983500761</v>
+        <v>0.143244466833278</v>
       </c>
       <c r="G28" t="n">
-        <v>1.348528477138236e-07</v>
+        <v>0.0001627390719001233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.001314618676304591</v>
+        <v>-0.0002021672163407944</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.008671213298498995</v>
+        <v>-0.0009902533962271121</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01264041064743683</v>
+        <v>-4.220892270541394e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.903759206270043</v>
+        <v>9.716440394722881e-27</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08447483105199693</v>
+        <v>1.265539252609032e-185</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0004940145043261133</v>
+        <v>0.3683300570384479</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0002114009756151079</v>
+        <v>-1.496954020768297</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0009991622511206298</v>
+        <v>-1.276285457628465</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.626669098904785e-06</v>
+        <v>-1.753344908422226</v>
       </c>
       <c r="E30" t="n">
-        <v>6.014900905256391e-24</v>
+        <v>6.390913589230085e-23</v>
       </c>
       <c r="F30" t="n">
-        <v>1.350574385447323e-185</v>
+        <v>9.217022640878608e-32</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6061305619763859</v>
+        <v>2.625395737958472e-97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.521222206952113</v>
+        <v>0.06475916700706953</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.316688265503727</v>
+        <v>-0.1297564110012705</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.81249326784192</v>
+        <v>-0.1179743287934507</v>
       </c>
       <c r="E31" t="n">
-        <v>1.079470424884852e-16</v>
+        <v>0.2934710402949156</v>
       </c>
       <c r="F31" t="n">
-        <v>8.366487907050005e-33</v>
+        <v>0.004852097463685903</v>
       </c>
       <c r="G31" t="n">
-        <v>5.637572005327225e-112</v>
+        <v>0.001154961685091949</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01251170473751514</v>
+        <v>4.828550727857288e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1379791874951219</v>
+        <v>2.467157450650239e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1142227195329099</v>
+        <v>6.479527681495786e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.827824529564993</v>
+        <v>0.130806675468384</v>
       </c>
       <c r="F32" t="n">
-        <v>0.002279642669369537</v>
+        <v>0.1496160455941737</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0003612612005815476</v>
+        <v>2.385176760297619e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.754425721304029e-05</v>
+        <v>0.01094281050273579</v>
       </c>
       <c r="C33" t="n">
-        <v>3.70157957377105e-05</v>
+        <v>-0.004834506187230213</v>
       </c>
       <c r="D33" t="n">
-        <v>5.919403791500545e-05</v>
+        <v>-0.02388366485656826</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01872112901989372</v>
+        <v>0.8177436904194789</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06126771874478277</v>
+        <v>0.8724770128827255</v>
       </c>
       <c r="G33" t="n">
-        <v>7.176353232917526e-05</v>
+        <v>0.3508348364361331</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01736004716571712</v>
+        <v>-0.07936902539022571</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01749622105369791</v>
+        <v>-0.1308946241300939</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.03909681841925156</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+        <v>-0.1328350646111735</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.03333439096296606</v>
+      </c>
       <c r="F34" t="n">
-        <v>0.518941727620075</v>
+        <v>1.184235320689287e-07</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07010052378959265</v>
+        <v>4.091093443012028e-11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.06391413678284369</v>
+        <v>-1.451709383937786e-08</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1180776838175749</v>
+        <v>-3.646313163060523e-09</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1278494386694744</v>
+        <v>6.685728349373068e-09</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0009258922382192977</v>
+        <v>0.245520362664522</v>
       </c>
       <c r="F35" t="n">
-        <v>2.159790602860057e-06</v>
+        <v>0.6312766242693932</v>
       </c>
       <c r="G35" t="n">
-        <v>2.713087348060795e-11</v>
+        <v>0.2615233274244624</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.153965818220225e-08</v>
+        <v>-0.02217410334499431</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.115712851900601e-09</v>
+        <v>0.008361629615390326</v>
       </c>
       <c r="D36" t="n">
-        <v>3.793673673466164e-09</v>
+        <v>-0.003368697996147558</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01025898674030342</v>
+        <v>0.003789245867240103</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8068271932672885</v>
+        <v>0.08904898867711521</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5555014257074178</v>
+        <v>0.3292745477392682</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.0239102845988688</v>
+        <v>-0.009477992894918925</v>
       </c>
       <c r="C37" t="n">
-        <v>0.008698946712023968</v>
+        <v>0.00891440371655919</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0006442611358554496</v>
+        <v>-0.001637810661740389</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2434823169510482</v>
+        <v>0.2331525144619734</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05390090385256819</v>
+        <v>0.06743011744222158</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8809605651570948</v>
+        <v>0.5460733792583659</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.01327882119281347</v>
+        <v>3.484956723265223</v>
       </c>
       <c r="C38" t="n">
-        <v>0.009086600355385584</v>
+        <v>0.2072950013434244</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002239830741921436</v>
+        <v>-0.3950774894993969</v>
       </c>
       <c r="E38" t="n">
-        <v>0.692932111259728</v>
+        <v>0.01215210808926807</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01269420169407239</v>
+        <v>0.8361738857164041</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5593149107714717</v>
+        <v>0.6212669301107604</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.928448736196978</v>
+        <v>-0.4674236866912386</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1501024498420973</v>
+        <v>-0.4633051199570816</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1389786654590005</v>
+        <v>-0.7403088403425672</v>
       </c>
       <c r="E39" t="n">
-        <v>9.684287401137273e-05</v>
+        <v>0.5962816849398072</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8507600177492247</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+        <v>0.4444515970063286</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.06629812948118215</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.448802050539959</v>
+        <v>-1.953795194557983</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.5879121107091991</v>
+        <v>0.109199269699882</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.7257357473281256</v>
+        <v>0.3836096921802921</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8423564566651004</v>
+        <v>0.06719287070181144</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2392095204862487</v>
+        <v>0.8648687499000771</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01450277097466682</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-1.207859462053817</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-0.4179587643787693</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5539771566380549</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.1444332747394217</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.5600698927572967</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.3717311136291499</v>
+        <v>0.4200084007076109</v>
       </c>
     </row>
   </sheetData>
@@ -2496,7 +2477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2548,21 +2529,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.417478925992604</v>
+        <v>1.201986171790982</v>
       </c>
       <c r="C2" t="n">
-        <v>2.073444586813973</v>
+        <v>1.667617767912062</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6415916311468797</v>
+        <v>0.3616978956828091</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6534865717973151</v>
+        <v>0.1892022386376984</v>
       </c>
       <c r="F2" t="n">
-        <v>9.329855992444584e-07</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>0.03418775676394314</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3943128958340587</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2571,22 +2554,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0731050610642769</v>
+        <v>0.1329628478956931</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.09119882764912041</v>
+        <v>-0.004858506588038197</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2426013887487157</v>
+        <v>-0.2780684128807059</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7029687247965981</v>
+        <v>0.4664288063671143</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4573275336734796</v>
+        <v>0.9694410551678468</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01371403611534251</v>
+        <v>0.01185066874268911</v>
       </c>
     </row>
     <row r="4">
@@ -2596,22 +2579,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3393696863369328</v>
+        <v>-0.04341515740156038</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1146666597583592</v>
+        <v>0.1130789136796626</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.634790262780524</v>
+        <v>-0.4952477165420764</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2201411959684977</v>
+        <v>0.886852415303139</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6187250615434566</v>
+        <v>0.6478462701273997</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004547509942834784</v>
+        <v>0.01480902486858006</v>
       </c>
     </row>
     <row r="5">
@@ -2621,22 +2604,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2130644556805773</v>
+        <v>-0.1163911213474195</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2186246830914076</v>
+        <v>-0.1146750233228379</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2484389978328183</v>
+        <v>-0.2782620632803831</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5692117070477571</v>
+        <v>0.6903507023350233</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2290666644054351</v>
+        <v>0.5366366329824951</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06089019366803186</v>
+        <v>0.06540527435703808</v>
       </c>
     </row>
     <row r="6">
@@ -2646,22 +2629,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4519064734994501</v>
+        <v>0.6185336842345016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1361074163663802</v>
+        <v>0.1768401617856616</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1594658909905935</v>
+        <v>0.2777364643288506</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3586046269346224</v>
+        <v>0.09480319374332132</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6839314655872513</v>
+        <v>0.6454961699828125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3637475545468456</v>
+        <v>0.1389974390909123</v>
       </c>
     </row>
     <row r="7">
@@ -2671,20 +2654,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5455671015634803</v>
+        <v>-0.5438234217900159</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5891823281564581</v>
+        <v>-0.541953095636827</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5595014870591967</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>-0.4942405836252586</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001337144142267156</v>
+      </c>
       <c r="F7" t="n">
-        <v>1.471137981621289e-05</v>
+        <v>4.403056447864201e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>3.68756893865641e-11</v>
+        <v>3.502178553011029e-08</v>
       </c>
     </row>
     <row r="8">
@@ -2694,20 +2679,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5041401234920538</v>
+        <v>0.500653389762447</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04221512331195847</v>
+        <v>0.07384463942153438</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01570082220426143</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>-0.0273410850489049</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.736725837167677e-13</v>
+      </c>
       <c r="F8" t="n">
-        <v>0.8168462881210958</v>
+        <v>0.6500815655875847</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9070844535763416</v>
+        <v>0.7768692455689939</v>
       </c>
     </row>
     <row r="9">
@@ -2717,22 +2704,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3983197503993258</v>
+        <v>0.515228986572729</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1381775324596414</v>
+        <v>0.2303653311841179</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1116097230646963</v>
+        <v>-0.1481770101499149</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02777678821404001</v>
+        <v>0.001360868988712299</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3632085465267807</v>
+        <v>0.1201249222484735</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3650440870310847</v>
+        <v>0.166686786594808</v>
       </c>
     </row>
     <row r="10">
@@ -2742,22 +2729,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2986585928548483</v>
+        <v>-0.2816822096151063</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0652793494777695</v>
+        <v>0.1088804157751103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1192100532330841</v>
+        <v>0.1233333468056059</v>
       </c>
       <c r="E10" t="n">
-        <v>0.206264219180712</v>
+        <v>0.01560096003090673</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5355871828403845</v>
+        <v>0.291667434244369</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1286810939776961</v>
+        <v>0.09731770276728566</v>
       </c>
     </row>
     <row r="11">
@@ -2767,17 +2754,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.34907237614757</v>
+        <v>1.345311120417274</v>
       </c>
       <c r="C11" t="n">
-        <v>1.566459914279863</v>
+        <v>1.418970783335228</v>
       </c>
       <c r="D11" t="n">
-        <v>1.319286403236106</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+        <v>1.396006685881369</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.362377538051724e-05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.24031380436725e-16</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.450759490483789e-14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2786,20 +2779,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4242345785146678</v>
+        <v>0.8163325755811307</v>
       </c>
       <c r="C12" t="n">
-        <v>1.286461963770812</v>
+        <v>1.117415379861499</v>
       </c>
       <c r="D12" t="n">
-        <v>2.08038003410044</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>2.114503761654515</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.06004499811242793</v>
+      </c>
       <c r="F12" t="n">
-        <v>3.568587249035437e-08</v>
+        <v>1.555779756099026e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>3.292678199945626e-20</v>
+        <v>3.595151058388279e-25</v>
       </c>
     </row>
     <row r="13">
@@ -2809,19 +2804,23 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9866619011342841</v>
+        <v>0.9935294587198003</v>
       </c>
       <c r="C13" t="n">
-        <v>1.186462116441407</v>
+        <v>1.071552007184309</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7190105879779435</v>
+        <v>0.7168388169227713</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01108680123704793</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+        <v>0.003421763556354617</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.791158637645336e-09</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0004992918983744563</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2830,20 +2829,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.595727415371115</v>
+        <v>1.835233202290927</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7240896432953986</v>
+        <v>0.6371221861174177</v>
       </c>
       <c r="D14" t="n">
-        <v>1.891839593091077</v>
+        <v>1.959937342870537</v>
       </c>
       <c r="E14" t="n">
-        <v>3.947813697689745e-23</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+        <v>4.69274953969016e-09</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.001059425507515951</v>
+      </c>
       <c r="G14" t="n">
-        <v>1.179368710005984e-31</v>
+        <v>2.737034440859997e-31</v>
       </c>
     </row>
     <row r="15">
@@ -2853,20 +2854,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9572350102081142</v>
+        <v>0.9829585152191112</v>
       </c>
       <c r="C15" t="n">
-        <v>1.272737617017544</v>
+        <v>0.6171183293266278</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8109574479189826</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>0.8915373655569724</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1563485691948228</v>
+      </c>
       <c r="F15" t="n">
-        <v>0.003060621903579659</v>
+        <v>0.2004630266043305</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00627968953535589</v>
+        <v>0.01784524456812638</v>
       </c>
     </row>
     <row r="16">
@@ -2876,22 +2879,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1329364860396142</v>
+        <v>-0.08035147502467885</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4999650746746631</v>
+        <v>0.4431797092655637</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2772978038564034</v>
+        <v>0.3148965147919316</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01013541435991461</v>
+        <v>0.7328816335824344</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002392821664238905</v>
+        <v>0.006226086788336136</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05423745112111293</v>
+        <v>0.02101080015085359</v>
       </c>
     </row>
     <row r="17">
@@ -2901,17 +2904,21 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4080909313046573</v>
+        <v>0.2169226720188391</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5754258786221357</v>
+        <v>-0.671142677475384</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9529347268518018</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
+        <v>-0.988812705966436</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9999999999999991</v>
+      </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0.9999999802275173</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2920,22 +2927,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2953558938788222</v>
+        <v>-0.2639842110807403</v>
       </c>
       <c r="C18" t="n">
-        <v>0.144557344079233</v>
+        <v>0.1577095684573709</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5323599652497645</v>
+        <v>0.6047914121604778</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4085199501869601</v>
+        <v>0.3647782720821597</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4588830018183511</v>
+        <v>0.3925638614625073</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001790565101636183</v>
+        <v>0.0001175962683167054</v>
       </c>
     </row>
     <row r="19">
@@ -2945,22 +2952,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8005612801100677</v>
+        <v>0.8229020777710176</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08213109022965993</v>
+        <v>0.1952817485762789</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5974151285794675</v>
+        <v>0.5680326384378918</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02859165618195088</v>
+        <v>0.01606501819759373</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7558334485195639</v>
+        <v>0.4793499898192061</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002225940914012151</v>
+        <v>0.003789565566375172</v>
       </c>
     </row>
     <row r="20">
@@ -2970,20 +2977,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2905016569435433</v>
+        <v>0.4013019622537548</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.642469508285386</v>
+        <v>-0.491668931551412</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1697430501414919</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
+        <v>0.09835626268215433</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3634523852751668</v>
+      </c>
       <c r="F20" t="n">
-        <v>0.06757218280756859</v>
+        <v>0.1453249306823436</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4947207952182304</v>
+        <v>0.6766018956437496</v>
       </c>
     </row>
     <row r="21">
@@ -2993,22 +3002,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9537630007256925</v>
+        <v>0.6819565876580604</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211243179299322</v>
+        <v>-0.0373867997685212</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205040626782194</v>
+        <v>0.3164143312193544</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1742638564365562</v>
+        <v>0.1900101495850005</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6394151141368374</v>
+        <v>0.9308381602467271</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5236770520525211</v>
+        <v>0.2905081034117165</v>
       </c>
     </row>
     <row r="22">
@@ -3018,22 +3027,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.339112126482284</v>
+        <v>-1.598062014708484</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5241265449410417</v>
+        <v>-0.6855276176206689</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.290357791983276</v>
+        <v>-1.300082693212325</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1872436588959229</v>
+        <v>0.003837694145215869</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1244104555070923</v>
+        <v>0.02877419333835777</v>
       </c>
       <c r="G22" t="n">
-        <v>6.782109071481092e-07</v>
+        <v>1.252287292400151e-07</v>
       </c>
     </row>
     <row r="23">
@@ -3043,17 +3052,21 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4080812511211902</v>
+        <v>0.2169152122969122</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5754261437125909</v>
+        <v>-0.6711424163126916</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9529346401574068</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+        <v>-0.9888129693124956</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9999999999999991</v>
+      </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0.9999999802188966</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3062,445 +3075,422 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1661935455955419</v>
+        <v>0.2579879327134759</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1642776217245324</v>
+        <v>0.01452846112720235</v>
       </c>
       <c r="D24" t="n">
-        <v>0.243413926766704</v>
+        <v>0.4003938289060152</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7512145602571575</v>
+        <v>0.2246447688844726</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4695776533939502</v>
+        <v>0.9105368154801183</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1539849693269425</v>
+        <v>6.123628226352476e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1652168438043508</v>
+        <v>1.05246031376515</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01078879297805497</v>
+        <v>0.1376300940135005</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3672601300331766</v>
+        <v>0.6003029235408468</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5440085746238581</v>
+        <v>3.2114357647329e-08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9358694538257889</v>
+        <v>0.288853243643546</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002801349163771848</v>
+        <v>1.907739471956454e-09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.111469896983013</v>
+        <v>-0.6279534295209448</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1087654895529685</v>
+        <v>-0.7136122481149538</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5014503826270599</v>
+        <v>-0.4957882926070285</v>
       </c>
       <c r="E26" t="n">
-        <v>9.740897440000142e-43</v>
+        <v>0.3258051741879833</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3628739311567337</v>
+        <v>0.05437100564308853</v>
       </c>
       <c r="G26" t="n">
-        <v>4.992597419028012e-08</v>
+        <v>0.08360805005871158</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.5130649714878501</v>
+        <v>-0.3872510008362379</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8123796749557174</v>
+        <v>0.09392950146134882</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.527135040476604</v>
+        <v>0.3211427022675359</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4345078773795436</v>
+        <v>0.005126107152170512</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02997468964840141</v>
+        <v>0.3309639280333058</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07217794590616027</v>
+        <v>1.300104895282063e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.3557258004371938</v>
+        <v>-0.001221133582996409</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1020781407596359</v>
+        <v>-0.006814523601308632</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3800533530322369</v>
+        <v>-0.01602754938631439</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01066391877089664</v>
+        <v>0.8444258150006505</v>
       </c>
       <c r="F28" t="n">
-        <v>0.270871376087744</v>
+        <v>0.1634511821014163</v>
       </c>
       <c r="G28" t="n">
-        <v>1.704019978799964e-08</v>
+        <v>7.742369722054005e-07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.918626944857231e-05</v>
+        <v>-0.0002414156983123908</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.007839068649496919</v>
+        <v>-0.001010975108854426</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01446305254173243</v>
+        <v>-2.018546208068194e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9934312861504502</v>
+        <v>1.517217629600799e-30</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1023893393328896</v>
+        <v>2.749624888084231e-186</v>
       </c>
       <c r="G29" t="n">
-        <v>5.94411354960483e-05</v>
+        <v>0.6702485048848608</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0002021580729163965</v>
+        <v>-1.475058010639195</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0009911331567025734</v>
+        <v>-1.396757172048436</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.216156625125439e-06</v>
+        <v>-1.851038777299045</v>
       </c>
       <c r="E30" t="n">
-        <v>5.339770639201748e-24</v>
+        <v>6.448656174662434e-22</v>
       </c>
       <c r="F30" t="n">
-        <v>2.156231605382375e-185</v>
+        <v>6.780223669593959e-36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3706092203954309</v>
+        <v>1.064419538224781e-101</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.497084263945457</v>
+        <v>0.04521872649483291</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.269817866029338</v>
+        <v>-0.1080473922778259</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.758467274128518</v>
+        <v>-0.1371566765050758</v>
       </c>
       <c r="E31" t="n">
-        <v>3.449044318214416e-23</v>
+        <v>0.463736759982458</v>
       </c>
       <c r="F31" t="n">
-        <v>1.543393451096771e-30</v>
+        <v>0.01937583228455428</v>
       </c>
       <c r="G31" t="n">
-        <v>2.028445817158069e-100</v>
+        <v>0.0001412549484503053</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0645724959127494</v>
+        <v>5.340030498409669e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1312196758629409</v>
+        <v>3.007619424391395e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1172303662072331</v>
+        <v>7.063769308020624e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2831430129495909</v>
+        <v>0.03447404465919091</v>
       </c>
       <c r="F32" t="n">
-        <v>0.002968260084488123</v>
+        <v>0.1065969770619535</v>
       </c>
       <c r="G32" t="n">
-        <v>0.000575239184182364</v>
+        <v>8.669782029144091e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.840345239040659e-05</v>
+        <v>0.01486145443777869</v>
       </c>
       <c r="C33" t="n">
-        <v>2.383978511858006e-05</v>
+        <v>-0.04094278828791737</v>
       </c>
       <c r="D33" t="n">
-        <v>6.529561034476791e-05</v>
+        <v>-0.05475584766593972</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01269717839765217</v>
+        <v>0.6781419645386255</v>
       </c>
       <c r="F33" t="n">
-        <v>0.21852040159621</v>
+        <v>0.1462887688755545</v>
       </c>
       <c r="G33" t="n">
-        <v>1.220782641732259e-05</v>
+        <v>0.008871890809484653</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01101647015892237</v>
+        <v>-0.06602304846411765</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.004980545214273342</v>
+        <v>-0.1263794996464639</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.02434922045814975</v>
+        <v>-0.1197857278698912</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8547543879686681</v>
+        <v>0.05965590234132688</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8733660472302532</v>
+        <v>2.412367406388879e-07</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3258820396101196</v>
+        <v>6.104133044336929e-10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.07932539706395388</v>
+        <v>-9.770610541083019e-09</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1308465681244808</v>
+        <v>-1.417237706785552e-09</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1325349066165203</v>
+        <v>6.437572780040557e-09</v>
       </c>
       <c r="E35" t="n">
-        <v>0.008167901830780989</v>
+        <v>0.4567031783882196</v>
       </c>
       <c r="F35" t="n">
-        <v>1.000937083854379e-06</v>
+        <v>0.8612650759463614</v>
       </c>
       <c r="G35" t="n">
-        <v>9.742824832786145e-10</v>
+        <v>0.3262628598759321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.449612039158154e-08</v>
+        <v>-0.02103974633385268</v>
       </c>
       <c r="C36" t="n">
-        <v>-3.49901270913322e-09</v>
+        <v>0.009513647423957314</v>
       </c>
       <c r="D36" t="n">
-        <v>6.516944951513886e-09</v>
+        <v>3.146470940652983e-05</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3642348550666633</v>
+        <v>1.365122498705226e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6637387154292226</v>
+        <v>0.04100235017782861</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3295862382574558</v>
+        <v>0.9922487934414066</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02217165774849574</v>
+        <v>-0.00853608515612737</v>
       </c>
       <c r="C37" t="n">
-        <v>0.008329219584415605</v>
+        <v>0.01236460438954098</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.003238222545595727</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
+        <v>0.0003459265654852936</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1616404589358954</v>
+      </c>
       <c r="F37" t="n">
-        <v>0.1062898882993418</v>
+        <v>0.01785677208902958</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3026307747696558</v>
+        <v>0.9381271038118257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.009493223516963476</v>
+        <v>3.490605582606618</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00889960206566206</v>
+        <v>-0.4742377580166768</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.001577335603374171</v>
+        <v>-0.5744457019584869</v>
       </c>
       <c r="E38" t="n">
-        <v>0.690188926498829</v>
+        <v>0.003547465220231811</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09890066007039219</v>
+        <v>0.6240495875309823</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6837787734903779</v>
+        <v>0.4480055719880501</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.481877817178136</v>
+        <v>-0.6441682650207419</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2310181476705269</v>
+        <v>-0.01296500480994422</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.4078339767872247</v>
+        <v>-0.7700955336636591</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002575577856008596</v>
+        <v>0.4211804376404674</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8128817925781036</v>
+        <v>0.9837664214039816</v>
       </c>
       <c r="G39" t="n">
-        <v>0.621178053502029</v>
+        <v>0.09939797858325813</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.4708724700192392</v>
+        <v>-1.512674064367748</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.4513349957279295</v>
+        <v>-0.388815042828786</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.7590709672640301</v>
+        <v>0.4436497915175901</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7071671764219367</v>
+        <v>0.1742736458204158</v>
       </c>
       <c r="F40" t="n">
-        <v>0.492233396708476</v>
+        <v>0.5873852588513986</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1300938994078604</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-1.958089761009331</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.07470377976371607</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.3997188211542255</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.2654466844748253</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.9155032888749812</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.4934701901222188</v>
+        <v>0.4373372236634396</v>
       </c>
     </row>
   </sheetData>
@@ -3514,7 +3504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3566,22 +3556,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.502002851607944</v>
+        <v>1.496359744056677</v>
       </c>
       <c r="C2" t="n">
-        <v>2.030183948486952</v>
+        <v>2.020304789191069</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08601880737326199</v>
+        <v>0.09337409016992008</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2647893498559323</v>
+        <v>0.7208216590574871</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02855412159407937</v>
+        <v>0.005951327456008469</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9072368832494125</v>
+        <v>0.9125163605561587</v>
       </c>
     </row>
     <row r="3">
@@ -3591,22 +3581,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1543885295094475</v>
+        <v>0.1526323914811807</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04357881818983942</v>
+        <v>-0.04471417620972618</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3018946687636898</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3898305673230339</v>
-      </c>
+        <v>-0.3005757878936973</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0.7253055455341232</v>
+        <v>0.7432093634793637</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002542981429589592</v>
+        <v>0.008447775997255923</v>
       </c>
     </row>
     <row r="4">
@@ -3616,22 +3604,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0543089874788896</v>
+        <v>-0.05741035864362821</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.09704412914678985</v>
+        <v>-0.1017602917515843</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6970556910265024</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8795586387731285</v>
-      </c>
+        <v>-0.6952285787836836</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.7024323497337404</v>
+        <v>0.7102929343181004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002056528562119457</v>
+        <v>0.004257725492578191</v>
       </c>
     </row>
     <row r="5">
@@ -3641,22 +3627,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03660388910374627</v>
+        <v>-0.03894365255225465</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1543199000584093</v>
+        <v>-0.1551913982589519</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4159783693122839</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8673178316321473</v>
-      </c>
+        <v>-0.4142133075301329</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.4034154371674858</v>
+        <v>0.5391269942650991</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0004224134939772565</v>
+        <v>0.1666743449766381</v>
       </c>
     </row>
     <row r="6">
@@ -3666,22 +3650,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5353378341456102</v>
+        <v>0.5495038520802118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07234744268179531</v>
+        <v>0.1020239594421646</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08469931961899531</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1588773792301306</v>
-      </c>
+        <v>0.07610353485054444</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.8561439473439909</v>
+        <v>0.89645940148632</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6431376246224073</v>
+        <v>0.6398692003673278</v>
       </c>
     </row>
     <row r="7">
@@ -3691,22 +3673,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5206639795145357</v>
+        <v>-0.5227624359832905</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5069354298693537</v>
+        <v>-0.5106593452981572</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5158669844856372</v>
+        <v>-0.512518402296855</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03342567234087432</v>
+        <v>0.3621947129742341</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001137764433770943</v>
+        <v>0.0001907084321327755</v>
       </c>
       <c r="G7" t="n">
-        <v>6.200206113963862e-05</v>
+        <v>8.827788277050796e-07</v>
       </c>
     </row>
     <row r="8">
@@ -3716,22 +3698,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5592826294410957</v>
+        <v>0.5606896377117945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1201913587689675</v>
+        <v>0.1250090952828455</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.05810947066899605</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.00925579118237216</v>
-      </c>
+        <v>-0.05967689013735971</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.500115470660293</v>
+        <v>0.4816034004989891</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6661294547590557</v>
+        <v>0.6409848600355554</v>
       </c>
     </row>
     <row r="9">
@@ -3741,22 +3721,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4178042383387565</v>
+        <v>0.4186466122994573</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2541214181449879</v>
+        <v>0.2557839537791662</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.07262763461139957</v>
+        <v>-0.07318171426373252</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03119097113874639</v>
+        <v>0.03558454175950258</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1059404674887956</v>
+        <v>0.06427509697251436</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5574097934724911</v>
+        <v>0.4428121347889779</v>
       </c>
     </row>
     <row r="10">
@@ -3766,22 +3746,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3632369145150223</v>
+        <v>-0.3641312152807354</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1552243101334078</v>
+        <v>0.1552280789088059</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1269744358660373</v>
+        <v>0.1265155016104061</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02192333656870535</v>
+        <v>0.05458784124726598</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1470900183686149</v>
+        <v>0.1448545213808135</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1132558478561005</v>
+        <v>0.1394022305972553</v>
       </c>
     </row>
     <row r="11">
@@ -3791,22 +3771,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.362782394434285</v>
+        <v>1.364061852008333</v>
       </c>
       <c r="C11" t="n">
-        <v>1.585941365745819</v>
+        <v>1.583887758136524</v>
       </c>
       <c r="D11" t="n">
-        <v>1.362440573311055</v>
+        <v>1.361436232781404</v>
       </c>
       <c r="E11" t="n">
-        <v>1.145956481623243e-05</v>
+        <v>0.04687812392424207</v>
       </c>
       <c r="F11" t="n">
-        <v>2.745169310019928e-19</v>
+        <v>6.160905817622385e-21</v>
       </c>
       <c r="G11" t="n">
-        <v>1.789110918995972e-15</v>
+        <v>6.120769444193285e-12</v>
       </c>
     </row>
     <row r="12">
@@ -3816,22 +3796,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.724450895863884</v>
+        <v>0.7276752250367983</v>
       </c>
       <c r="C12" t="n">
-        <v>1.251199882983497</v>
+        <v>1.25137975419028</v>
       </c>
       <c r="D12" t="n">
-        <v>2.03219815753604</v>
+        <v>2.030376231689396</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07537438858174578</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4.459073586416982e-06</v>
-      </c>
+        <v>0.5726710399886974</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>1.364434726808482e-20</v>
+        <v>6.734287482498486e-12</v>
       </c>
     </row>
     <row r="13">
@@ -3841,22 +3819,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9348347038366686</v>
+        <v>0.9387688184311345</v>
       </c>
       <c r="C13" t="n">
-        <v>1.160383245517307</v>
+        <v>1.164357472674886</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6975079442512769</v>
+        <v>0.6939467655926167</v>
       </c>
       <c r="E13" t="n">
-        <v>0.006443671312315442</v>
+        <v>0.06231530414708359</v>
       </c>
       <c r="F13" t="n">
-        <v>3.878014879765152e-10</v>
+        <v>5.909272709176531e-104</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003429375145782448</v>
+        <v>0.001007435517646229</v>
       </c>
     </row>
     <row r="14">
@@ -3866,22 +3844,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.718119046851029</v>
+        <v>1.720712232802555</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7661449503553449</v>
+        <v>0.7663346998809354</v>
       </c>
       <c r="D14" t="n">
-        <v>1.830484548833879</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.791480954386488e-08</v>
-      </c>
+        <v>1.829088535171318</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0.0001261577950435962</v>
+        <v>3.225213999323848e-11</v>
       </c>
       <c r="G14" t="n">
-        <v>3.112609733289303e-25</v>
+        <v>3.795525088404377e-16</v>
       </c>
     </row>
     <row r="15">
@@ -3891,22 +3867,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.140582120312835</v>
+        <v>1.13627122008012</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8680430847147512</v>
+        <v>0.857973388779439</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8157348430715105</v>
+        <v>0.8193446623788997</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1062500454062663</v>
+        <v>0.09103050938971681</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09152602882745872</v>
+        <v>0.07883045219470698</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03400422901835674</v>
+        <v>0.04091626914749776</v>
       </c>
     </row>
     <row r="16">
@@ -3916,22 +3892,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.08386745613576749</v>
+        <v>-0.07662797358585897</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4523382084621485</v>
+        <v>0.4617140429316331</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3119502936615672</v>
+        <v>0.3045102497685789</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6799321263631137</v>
+        <v>0.8907776263969237</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002803177960659757</v>
+        <v>0.001201207092215679</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002380108792975554</v>
+        <v>7.965749886701714e-05</v>
       </c>
     </row>
     <row r="17">
@@ -3941,19 +3917,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3581820216923795</v>
+        <v>0.3594499560191745</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.8604903947488662</v>
+        <v>-0.8546839814204373</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.092098398232959</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9999999944250267</v>
-      </c>
+        <v>-1.093675784985137</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0.9999999883339699</v>
+        <v>0.9999999999999978</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -3964,22 +3938,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.4847762190433617</v>
+        <v>-0.4792662288228295</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09084643035315139</v>
+        <v>0.09626096854456069</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4459524152007464</v>
+        <v>0.4407712567831694</v>
       </c>
       <c r="E18" t="n">
-        <v>1.431661065873714e-05</v>
+        <v>0.3605851241750407</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5332588216447141</v>
+        <v>0.6284318274507664</v>
       </c>
       <c r="G18" t="n">
-        <v>5.0692858452842e-14</v>
+        <v>0.01443211017712734</v>
       </c>
     </row>
     <row r="19">
@@ -3989,22 +3963,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8963760560128929</v>
+        <v>0.887927810161559</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2072373993891651</v>
+        <v>0.1937983161470751</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5906829373818232</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.03456172856715235</v>
-      </c>
+        <v>0.5952491251877559</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.4782653261783033</v>
+        <v>0.4145222030624077</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01249742180284564</v>
+        <v>1.222851631857508e-07</v>
       </c>
     </row>
     <row r="20">
@@ -4014,22 +3986,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3271189500615537</v>
+        <v>0.4101383512606369</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4542565370297038</v>
+        <v>-0.347304033968608</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1115369567789722</v>
+        <v>0.05092640610635941</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5823337772793917</v>
+        <v>0.145723301282044</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2452537309388589</v>
+        <v>0.2568303323032194</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7127756009507058</v>
+        <v>0.7689413527671234</v>
       </c>
     </row>
     <row r="21">
@@ -4039,22 +4011,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.070667537292507</v>
+        <v>0.990593973705246</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03499325197112485</v>
+        <v>-0.06082135964138164</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4263606993645777</v>
+        <v>0.4833503946770826</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06135805519340284</v>
+        <v>0.6781476205697587</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9382851605977879</v>
+        <v>0.8804958009631627</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1866027444859827</v>
+        <v>0.07452077174707736</v>
       </c>
     </row>
     <row r="22">
@@ -4064,22 +4036,20 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.344916279490657</v>
+        <v>-1.417462161349888</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6150645923100213</v>
+        <v>-0.7051459013000262</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.154553200307988</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.02186702033417933</v>
-      </c>
+        <v>-1.100054544109148</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.06467545155462899</v>
+        <v>0.00381673098145187</v>
       </c>
       <c r="G22" t="n">
-        <v>8.044758866568989e-06</v>
+        <v>1.356648378188417e-08</v>
       </c>
     </row>
     <row r="23">
@@ -4089,23 +4059,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3581888592608316</v>
+        <v>0.3594406187720123</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.8604897829414234</v>
+        <v>-0.8546840928469416</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.09209819113028</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9999999973721998</v>
-      </c>
+        <v>-1.093675972547146</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0.9999999883339782</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9999996940653693</v>
-      </c>
+        <v>0.9999999999999978</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4114,447 +4080,404 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3981394667307742</v>
+        <v>0.3010111184210765</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05911832149026704</v>
+        <v>-0.06923091350571066</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3482794930203758</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.2576528673270468</v>
-      </c>
+        <v>0.4155225310083955</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0.7948519992795082</v>
+        <v>0.6139917326815788</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04061206649816495</v>
+        <v>7.297025707982223e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2753139435659774</v>
+        <v>1.041782795602707</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1089891261509586</v>
+        <v>0.09893311629236734</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4359960357866279</v>
+        <v>0.5886709084989544</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2203190764721267</v>
+        <v>3.566749365311781e-10</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4372262932172104</v>
+        <v>0.4459544225728422</v>
       </c>
       <c r="G25" t="n">
-        <v>2.86099153640161e-05</v>
+        <v>1.904652274864568e-09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.037730237253769</v>
+        <v>-0.5678480103468238</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09222419298506909</v>
+        <v>-0.962899417338363</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5928483663320872</v>
+        <v>-0.5163279274304184</v>
       </c>
       <c r="E26" t="n">
-        <v>6.276704792141653e-08</v>
+        <v>0.5230674145174852</v>
       </c>
       <c r="F26" t="n">
-        <v>0.473018698461422</v>
+        <v>0.01278556394231528</v>
       </c>
       <c r="G26" t="n">
-        <v>1.208012214815324e-09</v>
+        <v>0.08057964652885023</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.5581944082153087</v>
+        <v>-0.358039525302346</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9529472914231021</v>
+        <v>0.1509624255190954</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.5207317560990502</v>
+        <v>0.3577502510509157</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3858053888050167</v>
+        <v>0.006772161977403591</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01468725745695481</v>
+        <v>0.1145803520429338</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07814725879102317</v>
+        <v>8.30831675490038e-07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.3590070667054183</v>
+        <v>0.003319558019863291</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1486013490172429</v>
+        <v>-0.004565331014379404</v>
       </c>
       <c r="D28" t="n">
-        <v>0.358241195380108</v>
+        <v>-0.01135625249216985</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00469397326808345</v>
+        <v>0.6777713532853771</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1093994146384262</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7.44100208788992e-08</v>
-      </c>
+        <v>0.189871868229008</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003300909116416087</v>
+        <v>-0.0002227180158044587</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.004736698751578862</v>
+        <v>-0.001037267693192508</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01131569008326034</v>
+        <v>-3.773947104399629e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6012675126633349</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3134778835136764</v>
+        <v>5.962786188078977e-188</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0003426684344836568</v>
+        <v>0.459531752473024</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.00022265511409549</v>
+        <v>-1.475814267644287</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001038388793043286</v>
+        <v>-1.305303866718186</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.743698039014195e-06</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.527790580301918e-28</v>
-      </c>
+        <v>-1.765289264851733</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>8.233452255488963e-187</v>
+        <v>2.611333423106017e-33</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4444984453503109</v>
+        <v>3.848823007750592e-104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.472681810802645</v>
+        <v>0.02607613071930867</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.300244730195572</v>
+        <v>-0.1248910743315027</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.768252255660263</v>
+        <v>-0.1017193828393133</v>
       </c>
       <c r="E31" t="n">
-        <v>4.779217971729998e-22</v>
+        <v>0.5051268086611787</v>
       </c>
       <c r="F31" t="n">
-        <v>1.443992886834555e-31</v>
+        <v>0.006832356222306198</v>
       </c>
       <c r="G31" t="n">
-        <v>1.389559392049681e-99</v>
+        <v>0.007287827799784935</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02575359831518654</v>
+        <v>3.038272666416058e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1256039471717586</v>
+        <v>2.345248468361308e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.101264022996789</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.6570602518973397</v>
-      </c>
+        <v>5.703091344705898e-05</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.004499114650327646</v>
+        <v>0.2221972196876698</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001776406197257429</v>
+        <v>0.0001425592998379048</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.031591179552672e-05</v>
+        <v>0.02976818824843541</v>
       </c>
       <c r="C33" t="n">
-        <v>2.273539611659645e-05</v>
+        <v>-0.01123750117198605</v>
       </c>
       <c r="D33" t="n">
-        <v>5.740113694905587e-05</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.3423235405491452</v>
-      </c>
+        <v>-0.03551307742769035</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>0.2568741699558824</v>
+        <v>0.6390127345040777</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0005118777285966397</v>
+        <v>0.0003036603450705944</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02966008657114094</v>
+        <v>-0.09180409622385829</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01144224222272302</v>
+        <v>-0.1271230607593498</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.03583463096687305</v>
+        <v>-0.1405225733028669</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4761739619605675</v>
+        <v>0.02957738588467682</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7110327420596826</v>
+        <v>1.03040381545832e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1626957394170403</v>
+        <v>4.554347033918968e-08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.0915266064694205</v>
+        <v>-7.824393051316248e-09</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1269575128929011</v>
+        <v>-2.842727813119136e-09</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1403638105740873</v>
+        <v>5.828900631165018e-09</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003454493725513562</v>
+        <v>0.7108061863424215</v>
       </c>
       <c r="F35" t="n">
-        <v>1.854894528840199e-07</v>
+        <v>0.741571302015488</v>
       </c>
       <c r="G35" t="n">
-        <v>3.950617960821509e-18</v>
+        <v>0.4435841952611254</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-7.67551827833238e-09</v>
+        <v>-0.02274193994386701</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.697889935912479e-09</v>
+        <v>0.007244254828826348</v>
       </c>
       <c r="D36" t="n">
-        <v>5.742523108223291e-09</v>
+        <v>0.001504282458154409</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5498885066111117</v>
+        <v>0.2250236618346005</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7458426175150965</v>
+        <v>0.1073487937393948</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3788310107297163</v>
+        <v>0.1947313098601916</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02276279667296658</v>
+        <v>-0.0103308833834287</v>
       </c>
       <c r="C37" t="n">
-        <v>0.007274854702141656</v>
+        <v>0.007698452054120938</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00153855226079754</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.002075642521878087</v>
-      </c>
+        <v>0.001567046242101982</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>0.1508380739377785</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.6959762629206527</v>
-      </c>
+        <v>0.001126848627633217</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.01033099238319569</v>
+        <v>4.463980513292658</v>
       </c>
       <c r="C38" t="n">
-        <v>0.007775309014781583</v>
+        <v>0.4417027912463154</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001561342481802442</v>
+        <v>-0.5257018799783639</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1932622787769085</v>
+        <v>0.006988384235336062</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1467654018143218</v>
+        <v>0.675265338471118</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7025972594876555</v>
+        <v>0.5828164828778488</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.474106502063397</v>
+        <v>-0.6309625942691162</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4622399144807713</v>
+        <v>-0.3497145391573939</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.53664540598333</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.0004959219688308403</v>
-      </c>
+        <v>-0.7961984243775437</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>0.651222416393951</v>
+        <v>0.5845454065013322</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4954937701901264</v>
+        <v>0.117674579981629</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.6287802337278002</v>
+        <v>-1.950044956246113</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3374751058989175</v>
+        <v>-0.1315561871220174</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.8085864894910372</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.4724583265349939</v>
-      </c>
+        <v>0.3938258712891855</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>0.6084144831813738</v>
+        <v>0.8478301540210733</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1196179348691408</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-1.970104697426523</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-0.1577349037444395</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.4027413274985189</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.08074487213891664</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.8261497498448442</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.4707094537554701</v>
+        <v>0.2125335208979846</v>
       </c>
     </row>
   </sheetData>
@@ -4568,7 +4491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4620,22 +4543,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.535601338020574</v>
+        <v>0.7783745086040781</v>
       </c>
       <c r="C2" t="n">
-        <v>1.977736782777253</v>
+        <v>2.460695349400058</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1899588471639034</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2347624015266542</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.02598086847924336</v>
-      </c>
+        <v>0.3585389809012853</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.5834426180890904</v>
+        <v>0.8308209052245269</v>
       </c>
     </row>
     <row r="3">
@@ -4645,23 +4564,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1165464940360962</v>
+        <v>0.08215292304861979</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1326871743989846</v>
+        <v>-0.03833158157519279</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2860013677680983</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5100975630551716</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2904081278385177</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00511222523126851</v>
-      </c>
+        <v>-0.245194891829657</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4670,22 +4583,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1781536114312941</v>
+        <v>-0.05051599856000707</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01286406740416223</v>
+        <v>-0.09568706964809585</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4921782561622202</v>
+        <v>-0.5536930760970544</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6157347596528422</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9594129290880503</v>
-      </c>
+        <v>0.7791477866131087</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.0226888274033863</v>
+        <v>2.331640083688848e-65</v>
       </c>
     </row>
     <row r="5">
@@ -4695,22 +4606,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2274696486681878</v>
+        <v>0.01921257541228061</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1412403821841006</v>
+        <v>0.0001383525631302655</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.319078948462833</v>
+        <v>-0.2305134709640805</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4305693650413873</v>
+        <v>0.9728618153131242</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4546316619068609</v>
+        <v>0.999494105744237</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04365110927616039</v>
+        <v>0.4497362124149259</v>
       </c>
     </row>
     <row r="6">
@@ -4720,22 +4631,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3826175337460156</v>
+        <v>0.5449014372323945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2102216135785882</v>
+        <v>0.1358137585810565</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1021245890274593</v>
+        <v>0.111802131460778</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3357114801986216</v>
+        <v>0.6465582525331277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5739297275891602</v>
+        <v>0.7456452722141</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5746859565072728</v>
+        <v>0.7481539881917738</v>
       </c>
     </row>
     <row r="7">
@@ -4745,22 +4656,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5738654150746444</v>
+        <v>-0.5839834100262653</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.565927419697988</v>
+        <v>-0.5026090910794951</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5166122215822916</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0176954118560837</v>
-      </c>
+        <v>-0.4853208471754818</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0.0002232854317896029</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.234925925916267e-05</v>
+        <v>2.681035333375483e-10</v>
       </c>
     </row>
     <row r="8">
@@ -4770,22 +4679,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.374970639684379</v>
+        <v>0.5082869786476825</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.001052837914510449</v>
+        <v>0.1052877470378637</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.06909948461871361</v>
+        <v>0.003642698836396967</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1055317378135736</v>
+        <v>0.07483290343753578</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9955064320068719</v>
+        <v>0.6968281970915706</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6141221791266298</v>
+        <v>0.9800744919317951</v>
       </c>
     </row>
     <row r="9">
@@ -4795,22 +4704,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.329703067282461</v>
+        <v>0.437143699841925</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1747587363957147</v>
+        <v>0.2225399669086129</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2441735546604338</v>
+        <v>-0.1132728827379286</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09749786097139529</v>
+        <v>0.3488272542375352</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2642900024034118</v>
+        <v>0.05360023590586897</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05179537050243503</v>
+        <v>0.1621292426379799</v>
       </c>
     </row>
     <row r="10">
@@ -4820,22 +4729,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3757680574523724</v>
+        <v>-0.3635003239019392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03715629200778475</v>
+        <v>0.06723186027753782</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03468003302785953</v>
+        <v>0.1271880306780919</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0253254074844548</v>
+        <v>1.887461710760251e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7282199948932029</v>
+        <v>0.4501461854433196</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6658462950696691</v>
+        <v>0.1325756044315279</v>
       </c>
     </row>
     <row r="11">
@@ -4845,23 +4754,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.302841565910673</v>
+        <v>1.627560591528234</v>
       </c>
       <c r="C11" t="n">
-        <v>1.661082842695005</v>
+        <v>1.463082200307491</v>
       </c>
       <c r="D11" t="n">
-        <v>1.460367289592157</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.336365797501658e-05</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.648847379214343e-20</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.394056205021458e-17</v>
-      </c>
+        <v>1.32327543351927</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4870,22 +4773,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5856180403571714</v>
+        <v>0.9909216982387767</v>
       </c>
       <c r="C12" t="n">
-        <v>1.396029389099008</v>
+        <v>1.260964549090387</v>
       </c>
       <c r="D12" t="n">
-        <v>2.198520732397786</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.1711407129339344</v>
-      </c>
+        <v>2.05705831988074</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>4.396225093448894e-07</v>
+        <v>0.01607963386571303</v>
       </c>
       <c r="G12" t="n">
-        <v>1.103038748854192e-22</v>
+        <v>1.362205543326624e-06</v>
       </c>
     </row>
     <row r="13">
@@ -4895,22 +4796,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8397546473898774</v>
+        <v>1.127548347796659</v>
       </c>
       <c r="C13" t="n">
-        <v>1.217910855656099</v>
+        <v>1.103138248450387</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7918615842889257</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.01158103416523995</v>
-      </c>
+        <v>0.688059901665946</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>7.826153755928736e-11</v>
+        <v>1.759354624536475e-15</v>
       </c>
       <c r="G13" t="n">
-        <v>6.222915856776327e-05</v>
+        <v>0.0009413956311199945</v>
       </c>
     </row>
     <row r="14">
@@ -4920,22 +4819,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.53465760706477</v>
+        <v>2.028720329603681</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6967524423636265</v>
+        <v>0.5906424787356896</v>
       </c>
       <c r="D14" t="n">
-        <v>1.936509157057464</v>
+        <v>1.842670429550886</v>
       </c>
       <c r="E14" t="n">
-        <v>4.280850931160333e-07</v>
+        <v>0.02506631123359826</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004737160585018635</v>
+        <v>0.1953910326759875</v>
       </c>
       <c r="G14" t="n">
-        <v>4.074668000903478e-27</v>
+        <v>5.174245461148719e-06</v>
       </c>
     </row>
     <row r="15">
@@ -4945,22 +4844,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2369628819301844</v>
+        <v>0.8664428679572966</v>
       </c>
       <c r="C15" t="n">
-        <v>1.038143391855894</v>
+        <v>0.516399154170041</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9451019830973998</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.8237695535595231</v>
-      </c>
+        <v>0.449318376996702</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>0.03726534638349657</v>
+        <v>0.1869307454881708</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01012055507451032</v>
+        <v>0.05870366146143717</v>
       </c>
     </row>
     <row r="16">
@@ -4970,22 +4867,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02445059688772072</v>
+        <v>0.04358128359446421</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4461731051976993</v>
+        <v>0.5764500674912566</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3222526466595402</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9264869806849448</v>
-      </c>
+        <v>0.383917599519468</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0.007644311960544758</v>
+        <v>5.265366941916989e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02449044145489558</v>
+        <v>0.003921384443344419</v>
       </c>
     </row>
     <row r="17">
@@ -4995,21 +4890,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3379702220855688</v>
+        <v>0.165095109811559</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7774673275750911</v>
+        <v>-0.7147155791023581</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.032506480773463</v>
+        <v>-0.9743218218516855</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999922602967</v>
+        <v>0.9999999990420316</v>
       </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>0.9999999929785294</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5018,22 +4911,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2818832752265163</v>
+        <v>-0.2463627538020135</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1934220748772319</v>
+        <v>0.392237328577403</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5441648902631386</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.3052234318265623</v>
-      </c>
+        <v>0.5615851060792072</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.2989139050272919</v>
+        <v>0.01010295839664325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002404652340700351</v>
+        <v>3.21632483419376e-12</v>
       </c>
     </row>
     <row r="19">
@@ -5043,22 +4934,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8662161083727009</v>
+        <v>0.7545208588612987</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05914225286465821</v>
+        <v>0.2157701749202623</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4993668392246723</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.010453143022253</v>
-      </c>
+        <v>0.690696084605723</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0.827151381529675</v>
+        <v>9.111802722819167e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.009454749677496006</v>
+        <v>1.272824881830271e-08</v>
       </c>
     </row>
     <row r="20">
@@ -5068,22 +4957,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4654478234571781</v>
+        <v>0.5437687277328833</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5630112501888389</v>
+        <v>-0.4148910217524256</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09913762939811728</v>
+        <v>0.1103128792402605</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3624245734668212</v>
+        <v>0.1975563007444662</v>
       </c>
       <c r="F20" t="n">
-        <v>0.125962905544555</v>
+        <v>0.1971582669987629</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7048560452346756</v>
+        <v>0.653953786226957</v>
       </c>
     </row>
     <row r="21">
@@ -5093,22 +4982,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8877635697143101</v>
+        <v>0.6389637645954626</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05287962900876784</v>
+        <v>0.1278140369305562</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2796766854350792</v>
+        <v>0.4643313351224969</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1281004401016793</v>
+        <v>0.3257972178206244</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9072730061348164</v>
+        <v>0.7654108649956798</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3881302644511497</v>
+        <v>0.1706976498156805</v>
       </c>
     </row>
     <row r="22">
@@ -5118,22 +5007,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.311311932461079</v>
+        <v>-1.762096211560289</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.8325077657868981</v>
+        <v>-0.7411420259693587</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.360891984490838</v>
+        <v>-1.254617618527562</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02448071994379767</v>
+        <v>0.001572814611635247</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01477235379036814</v>
+        <v>0.005591081687661472</v>
       </c>
       <c r="G22" t="n">
-        <v>4.429044743552106e-07</v>
+        <v>3.891638589999347e-07</v>
       </c>
     </row>
     <row r="23">
@@ -5143,19 +5032,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3379724747705408</v>
+        <v>0.1650906722154086</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7774641571841887</v>
+        <v>-0.7147159876406561</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.032506692603126</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+        <v>-0.9743208467174169</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9999999988218145</v>
+      </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
-        <v>0.9999999929852913</v>
-      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5164,445 +5053,410 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2011997383818576</v>
+        <v>0.1686826750806803</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08193788350699308</v>
+        <v>0.005341380079416462</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2214359518505074</v>
+        <v>0.3388034464832244</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5765358114030539</v>
+        <v>0.426582832055298</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7166350756192226</v>
+        <v>0.9670806930783281</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1913286399838223</v>
+        <v>0.0009405379190175508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.196643851286489</v>
+        <v>1.1376822479824</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1203386691131755</v>
+        <v>0.2223520179629823</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3808759620324492</v>
+        <v>0.559487416614683</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3885804877845808</v>
+        <v>1.086691940831407e-09</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3981064409473948</v>
+        <v>0.07802227263094126</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002443732539740158</v>
+        <v>2.641505182484387e-08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9845977514471712</v>
+        <v>-0.5836043941866665</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06264888267819903</v>
+        <v>-0.8340340329741001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4996612656846928</v>
+        <v>-0.5244928101285671</v>
       </c>
       <c r="E26" t="n">
-        <v>3.106394020423806e-07</v>
+        <v>0.3473105696500953</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6287493009340419</v>
+        <v>0.0379114468244205</v>
       </c>
       <c r="G26" t="n">
-        <v>2.538199173576307e-07</v>
+        <v>0.07514589898832974</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.600771046174584</v>
+        <v>-0.2527516264397621</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.011005283467481</v>
+        <v>0.09856805139425812</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.6022506611673654</v>
+        <v>0.3500231216019996</v>
       </c>
       <c r="E27" t="n">
-        <v>0.344958434795422</v>
+        <v>0.01522750830564445</v>
       </c>
       <c r="F27" t="n">
-        <v>0.008818881818549404</v>
+        <v>0.2911149189447216</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03809705325074933</v>
+        <v>9.405695036467393e-07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.324803922337609</v>
+        <v>-0.001435608401857315</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1219013282002812</v>
+        <v>-0.01169213573440455</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3032587372787278</v>
+        <v>-0.01417839382096207</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01812965813340238</v>
+        <v>0.8655171713496841</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2076357213376376</v>
+        <v>0.05197882681864222</v>
       </c>
       <c r="G28" t="n">
-        <v>2.659749709762686e-05</v>
+        <v>0.0004851015240894147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.002286876176321313</v>
+        <v>-0.0002114236157276224</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.009456659082583654</v>
+        <v>-0.001014150753733475</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01473683060234509</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.7457972653563747</v>
-      </c>
+        <v>-3.469340744187585e-06</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.07082317030907904</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7.12861515604661e-05</v>
-      </c>
+        <v>3.671399043711031e-140</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0002153070826177357</v>
+        <v>-1.433806856849494</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001044271888081539</v>
+        <v>-1.278716128824623</v>
       </c>
       <c r="D30" t="n">
-        <v>-5.754897684356701e-06</v>
+        <v>-1.796264890846061</v>
       </c>
       <c r="E30" t="n">
-        <v>1.053523414356779e-27</v>
+        <v>9.689784254583542e-20</v>
       </c>
       <c r="F30" t="n">
-        <v>5.215912992761947e-189</v>
+        <v>3.668237267720064e-63</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2156555282577971</v>
+        <v>6.670976750125106e-106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.43011365659304</v>
+        <v>0.06112717111572923</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.313603593906147</v>
+        <v>-0.1524989993911233</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.776203535225583</v>
+        <v>-0.1188403483477172</v>
       </c>
       <c r="E31" t="n">
-        <v>1.730763562631752e-20</v>
+        <v>0.356932145297203</v>
       </c>
       <c r="F31" t="n">
-        <v>1.286890759550698e-31</v>
+        <v>0.0006889539222627692</v>
       </c>
       <c r="G31" t="n">
-        <v>1.255148991856921e-97</v>
+        <v>0.001258696964945258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.05097494291163955</v>
+        <v>4.806122292732339e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1273010612255315</v>
+        <v>3.690753397380527e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1009276249657823</v>
+        <v>7.406746698257257e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4096817191370786</v>
+        <v>9.569041281501421e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00589879881915128</v>
+        <v>0.03514795902993575</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00419988226875734</v>
+        <v>5.03104897955236e-09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.929339328857748e-05</v>
+        <v>0.02209934683737061</v>
       </c>
       <c r="C33" t="n">
-        <v>2.4322494804751e-05</v>
+        <v>-0.01383658083417355</v>
       </c>
       <c r="D33" t="n">
-        <v>6.720183856614213e-05</v>
+        <v>-0.04265993367393112</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05568462198471572</v>
+        <v>0.6961415005066507</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2338026504595003</v>
+        <v>0.6912250144382373</v>
       </c>
       <c r="G33" t="n">
-        <v>2.687119935755256e-05</v>
+        <v>0.1889856430326814</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.004534167885374099</v>
+        <v>-0.05187211571294775</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.006072923916965743</v>
+        <v>-0.134239946376223</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.04123589375793482</v>
+        <v>-0.1246508169728673</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9247738183310872</v>
+        <v>0.3279648956903422</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8475432115852481</v>
+        <v>1.461939585068294e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>0.111647192767539</v>
+        <v>0.0003490520334355942</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.08016388376292094</v>
+        <v>-1.358415870460651e-08</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1420559535615122</v>
+        <v>-4.964672716437979e-09</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1311323097886395</v>
+        <v>3.900310716480746e-09</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03834365939878415</v>
+        <v>0.01340602833949504</v>
       </c>
       <c r="F35" t="n">
-        <v>6.223553100972498e-08</v>
+        <v>0.4689472963654409</v>
       </c>
       <c r="G35" t="n">
-        <v>4.392332120484633e-10</v>
+        <v>0.6304382604710683</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-9.87836525888424e-09</v>
+        <v>-0.0193569928950939</v>
       </c>
       <c r="C36" t="n">
-        <v>-4.293902890868392e-09</v>
+        <v>0.007588471952202038</v>
       </c>
       <c r="D36" t="n">
-        <v>5.231339412330525e-09</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.4547183498823146</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.6092419528011392</v>
-      </c>
+        <v>0.0001222227398178231</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>0.4229313887355325</v>
+        <v>0.9919819637324757</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02164614141799492</v>
+        <v>-0.01179827622846112</v>
       </c>
       <c r="C37" t="n">
-        <v>0.007445079733554502</v>
+        <v>0.007799256648258013</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002150892624820672</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.001936623210586992</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.1361127948630927</v>
-      </c>
+        <v>0.0002899758844490989</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>0.4597124959298888</v>
+        <v>0.9735040679589114</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.009914577094983664</v>
+        <v>4.216730816665033</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01107267488502582</v>
+        <v>0.2298701438585185</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004381823318062689</v>
+        <v>-0.3077079772939575</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1852036769410813</v>
+        <v>0.004672673263511453</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03147154238407327</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+        <v>0.8210629111211112</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.7778658196615424</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.062181548013426</v>
+        <v>-0.8939907840336915</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1675944540043934</v>
+        <v>-0.5784845616467417</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.6906770765257071</v>
+        <v>-1.175098644150696</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002946744234630406</v>
+        <v>0.6321777396210659</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8685075040014362</v>
+        <v>0.4007186021901415</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2640581410452723</v>
+        <v>0.1585229788398921</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.241560359739245</v>
+        <v>-1.00661231046883</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2180745577940844</v>
+        <v>-0.2003401922289415</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.724496168282264</v>
+        <v>0.5917387813412899</v>
       </c>
       <c r="E40" t="n">
-        <v>0.203918413914044</v>
+        <v>0.004076664275719117</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7422088052302629</v>
+        <v>0.7651651296456936</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1308554437673546</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-1.908769007395348</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-0.187902777121307</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5599941390912799</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.0956364791387679</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.7951871215500534</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.3119394359881065</v>
+        <v>5.000839244357927e-10</v>
       </c>
     </row>
   </sheetData>
@@ -5616,7 +5470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5668,20 +5522,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8018294791001969</v>
+        <v>1.534871361351489</v>
       </c>
       <c r="C2" t="n">
-        <v>1.699323589573208</v>
+        <v>1.96154188017979</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07216576800616367</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>-0.1784268934588601</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3446970989015855</v>
+      </c>
       <c r="F2" t="n">
-        <v>0.07276098858971276</v>
+        <v>0.04799703065298989</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9281485246063174</v>
+        <v>0.834453445160531</v>
       </c>
     </row>
     <row r="3">
@@ -5691,20 +5547,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.004764004983512413</v>
+        <v>-0.116370504451849</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006929211818364443</v>
+        <v>-0.1332072854960469</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2497431897737151</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>-0.2836955540911195</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3634601088432922</v>
+      </c>
       <c r="F3" t="n">
-        <v>0.943892721746759</v>
+        <v>0.2689300607495884</v>
       </c>
       <c r="G3" t="n">
-        <v>3.491558678222468e-05</v>
+        <v>0.001910891139135409</v>
       </c>
     </row>
     <row r="4">
@@ -5714,22 +5572,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3172122448795042</v>
+        <v>-0.1795136794641282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05170072585527749</v>
+        <v>0.004039448363175598</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3679810964083806</v>
+        <v>-0.4905304208573744</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6706674246267914</v>
+        <v>0.5997609173812237</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8357177439017404</v>
+        <v>0.987052716480734</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07934921547485865</v>
+        <v>0.01806692613242508</v>
       </c>
     </row>
     <row r="5">
@@ -5739,22 +5597,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1543314670881983</v>
+        <v>-0.2278140535492575</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2289474540809209</v>
+        <v>-0.1434822383222167</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3337182853553062</v>
+        <v>-0.316564202218009</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8234699685789959</v>
+        <v>0.4891662443601821</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2179306287407244</v>
+        <v>0.4782323960494161</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01839616249845786</v>
+        <v>0.06961462493478612</v>
       </c>
     </row>
     <row r="6">
@@ -5764,22 +5622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6743063692662744</v>
+        <v>0.3845262994837025</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04779450493136449</v>
+        <v>0.2430111877718068</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1974735291449327</v>
+        <v>0.08688859726580124</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1257788484473948</v>
+        <v>0.3423431930345782</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9002889550141409</v>
+        <v>0.5164277298831781</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2919719447520543</v>
+        <v>0.6364649832646427</v>
       </c>
     </row>
     <row r="7">
@@ -5789,22 +5647,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5021371813390429</v>
+        <v>-0.5735827595070814</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4526861724953418</v>
+        <v>-0.5676487340150949</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.492897913318926</v>
+        <v>-0.5132871233352206</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01188584248868896</v>
+        <v>0.00780817759549471</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001925223804087049</v>
+        <v>0.0002047254162945543</v>
       </c>
       <c r="G7" t="n">
-        <v>4.316382327781413e-05</v>
+        <v>5.783583293007112e-05</v>
       </c>
     </row>
     <row r="8">
@@ -5814,22 +5672,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4785617444389855</v>
+        <v>0.3749339071031006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05639353649017471</v>
+        <v>0.004121415531981523</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0758527684380772</v>
+        <v>-0.07094522521084624</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5577068246320874</v>
+        <v>0.1039150927645393</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7478578147340215</v>
+        <v>0.9820911656539416</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5839227748207806</v>
+        <v>0.5875711722702186</v>
       </c>
     </row>
     <row r="9">
@@ -5839,22 +5697,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3955533378697151</v>
+        <v>0.3282852950007496</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07949347679824351</v>
+        <v>0.1757709959952478</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1384537421722144</v>
+        <v>-0.2476699748226083</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4253595434236414</v>
+        <v>0.03063438989706388</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6017322800919187</v>
+        <v>0.2568264938964554</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2881983941540882</v>
+        <v>0.04276438606819911</v>
       </c>
     </row>
     <row r="10">
@@ -5864,22 +5722,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3640720113437261</v>
+        <v>-0.377245635941734</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05624613928700328</v>
+        <v>0.03643056309025534</v>
       </c>
       <c r="D10" t="n">
-        <v>0.141728336242435</v>
+        <v>0.03346129929148339</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3532204899891809</v>
+        <v>0.00763550957029056</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5987420584775976</v>
+        <v>0.7237233157598997</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06784187890378279</v>
+        <v>0.6173992022454136</v>
       </c>
     </row>
     <row r="11">
@@ -5889,22 +5747,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.249832161092765</v>
+        <v>1.301981573895209</v>
       </c>
       <c r="C11" t="n">
-        <v>1.566415947811895</v>
+        <v>1.655474334075701</v>
       </c>
       <c r="D11" t="n">
-        <v>1.406161914069479</v>
+        <v>1.459456354190452</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3083849936725558</v>
+        <v>1.738081348284649e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>7.206753579928487e-33</v>
+        <v>8.347118626317081e-21</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28436857147003e-22</v>
+        <v>1.439042358563388e-17</v>
       </c>
     </row>
     <row r="12">
@@ -5914,20 +5772,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6355427862820043</v>
+        <v>0.5868196665628385</v>
       </c>
       <c r="C12" t="n">
-        <v>1.448073231247936</v>
+        <v>1.401079616593796</v>
       </c>
       <c r="D12" t="n">
-        <v>2.218977832706976</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>2.192567149614469</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.144295939391639</v>
+      </c>
       <c r="F12" t="n">
-        <v>3.065508503143392e-08</v>
+        <v>3.283061009513909e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>5.523397250432487e-27</v>
+        <v>1.890002314044997e-22</v>
       </c>
     </row>
     <row r="13">
@@ -5937,22 +5797,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7955123704022696</v>
+        <v>0.8400444847995703</v>
       </c>
       <c r="C13" t="n">
-        <v>1.135583746711743</v>
+        <v>1.220407701129774</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7144352117372268</v>
+        <v>0.7855212532593048</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06952168566981438</v>
+        <v>0.003255156296577399</v>
       </c>
       <c r="F13" t="n">
-        <v>7.441667562309184e-203</v>
+        <v>4.320987893602074e-12</v>
       </c>
       <c r="G13" t="n">
-        <v>1.864779356735843e-05</v>
+        <v>1.288311064861329e-05</v>
       </c>
     </row>
     <row r="14">
@@ -5962,22 +5822,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.504399611294978</v>
+        <v>1.534402037163888</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7129857609097767</v>
+        <v>0.6954567149382966</v>
       </c>
       <c r="D14" t="n">
-        <v>1.940397063749381</v>
+        <v>1.933853845647441</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09368030227940881</v>
+        <v>2.498627600672283e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>1.425157337409038e-05</v>
+        <v>0.0004232880473988228</v>
       </c>
       <c r="G14" t="n">
-        <v>1.187354497031516e-45</v>
+        <v>1.159539686619729e-27</v>
       </c>
     </row>
     <row r="15">
@@ -5987,22 +5847,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8251620876606004</v>
+        <v>-0.2355079836957692</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9075353480880388</v>
+        <v>1.030357980045125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7680556255405117</v>
+        <v>0.9480404335044195</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004985020973319015</v>
+        <v>0.835988827542489</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0486812621790176</v>
+        <v>0.04257394928600073</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04721521844534722</v>
+        <v>0.01491750036489446</v>
       </c>
     </row>
     <row r="16">
@@ -6012,22 +5872,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.238125790670016</v>
+        <v>-0.02329230812409125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4957082946719633</v>
+        <v>0.4571082223265124</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4270043764589164</v>
+        <v>0.3109711012747874</v>
       </c>
       <c r="E16" t="n">
-        <v>0.327157138359934</v>
+        <v>0.9294161218272654</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004701147174415388</v>
+        <v>0.005815217821584957</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003691157530126274</v>
+        <v>0.02852663537825051</v>
       </c>
     </row>
     <row r="17">
@@ -6037,22 +5897,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4803001192886774</v>
+        <v>0.3374891245715792</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5834317417549725</v>
+        <v>-0.7746237397442197</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7758189696145384</v>
+        <v>-1.031429942386565</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999999999983</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.9999999927260916</v>
-      </c>
+        <v>0.9999999962713324</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0.9999999999999964</v>
+        <v>0.9999999953985336</v>
       </c>
     </row>
     <row r="18">
@@ -6062,22 +5920,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.259424371035256</v>
+        <v>-0.2812641005959434</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08543638124865882</v>
+        <v>0.2035985190844908</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4766744697518502</v>
+        <v>0.5341166700768896</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6365983211920623</v>
+        <v>0.3050183228894816</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6445047019349572</v>
+        <v>0.2719986227544303</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001279046867755726</v>
+        <v>0.0002971880831932264</v>
       </c>
     </row>
     <row r="19">
@@ -6087,22 +5945,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5383574436492744</v>
+        <v>0.864755693707853</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09346611495513849</v>
+        <v>0.04435426015433233</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5696742043796742</v>
+        <v>0.5081314368491698</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02002609835777076</v>
+        <v>0.01090949245212435</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7301012326437892</v>
+        <v>0.8695536756969214</v>
       </c>
       <c r="G19" t="n">
-        <v>0.003776008289287289</v>
+        <v>0.008842962095624948</v>
       </c>
     </row>
     <row r="20">
@@ -6112,22 +5970,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3878500044317661</v>
+        <v>0.4645765243654278</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.6487911474967777</v>
+        <v>-0.4417514341573731</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2235468804772283</v>
+        <v>-0.001851083603086909</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3470771822891018</v>
+        <v>0.2994122281689704</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06811554113562122</v>
+        <v>0.1867867405168754</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3869938835327459</v>
+        <v>0.9937429518090868</v>
       </c>
     </row>
     <row r="21">
@@ -6137,22 +5995,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5492632694368091</v>
+        <v>0.887460798163474</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07870825814355528</v>
+        <v>-0.06389290798336934</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1793876541199853</v>
+        <v>0.3804187262919355</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07357572819136056</v>
+        <v>0.08951035434412492</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8680235552621872</v>
+        <v>0.8822689636403538</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5947877908755197</v>
+        <v>0.2118736529473095</v>
       </c>
     </row>
     <row r="22">
@@ -6162,22 +6020,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.469083525400185</v>
+        <v>-1.309721060553999</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.70321148288018</v>
+        <v>-0.9424105814135879</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.448854615541996</v>
+        <v>-1.263106333911621</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07403575724976508</v>
+        <v>0.01500166325063349</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05565185885727984</v>
+        <v>0.002938986728424006</v>
       </c>
       <c r="G22" t="n">
-        <v>9.27891792372032e-07</v>
+        <v>3.82559885693051e-07</v>
       </c>
     </row>
     <row r="23">
@@ -6187,22 +6045,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4802984008137067</v>
+        <v>0.3374861597674624</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5834323900581455</v>
+        <v>-0.7746240866396674</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.7758194552626491</v>
+        <v>-1.031429929255941</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9999999943839099</v>
-      </c>
+        <v>0.9999999982951738</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>0.9999999999999964</v>
+        <v>0.9999999954013782</v>
       </c>
     </row>
     <row r="24">
@@ -6212,435 +6068,422 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3678602203494009</v>
+        <v>0.1992282417811483</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1082487935724122</v>
+        <v>-0.06911393083229858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1579411697696163</v>
+        <v>0.3460151667666291</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4831976564407985</v>
+        <v>0.3569204904064728</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6531445748749647</v>
+        <v>0.6015156302080028</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3830512675640468</v>
+        <v>0.0003667050216705514</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1776973590424776</v>
+        <v>0.985123133585365</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1112925881065965</v>
+        <v>0.07106103922548522</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3686720390941961</v>
+        <v>0.4933227274827502</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4577231373430879</v>
+        <v>2.187663130040339e-07</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4234447757715735</v>
+        <v>0.5811234121467166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0004096359272038866</v>
+        <v>2.042379291211516e-07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.060951485970327</v>
+        <v>-0.6028160341410987</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09498303404368216</v>
+        <v>-1.019633678630208</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5587028191708755</v>
+        <v>-0.5939301618303899</v>
       </c>
       <c r="E26" t="n">
-        <v>1.304531235734982e-07</v>
+        <v>0.3436882290423058</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4608738773535955</v>
+        <v>0.008448120479904748</v>
       </c>
       <c r="G26" t="n">
-        <v>1.158287608789046e-08</v>
+        <v>0.04219436964518191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.830170354146729</v>
+        <v>-0.3252804744740005</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8365716859021408</v>
+        <v>0.1243605685212247</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.8004682620863541</v>
+        <v>0.3028883861017231</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1170762477645119</v>
+        <v>0.01693287271485317</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02589170071842754</v>
+        <v>0.197531148731638</v>
       </c>
       <c r="G27" t="n">
-        <v>0.006745390925479781</v>
+        <v>2.506444810321971e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.2249182953262986</v>
+        <v>0.002274812229943812</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1430016277098957</v>
+        <v>-0.009365983265538147</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3493028845675645</v>
+        <v>-0.01472445132811777</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08931835990456168</v>
+        <v>0.7473856123939095</v>
       </c>
       <c r="F28" t="n">
-        <v>0.130343876341925</v>
+        <v>0.07367435259933665</v>
       </c>
       <c r="G28" t="n">
-        <v>1.237324384293522e-06</v>
+        <v>7.239487609553375e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001260012255179879</v>
+        <v>-0.0002153271356829162</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.00484975606681907</v>
+        <v>-0.001043311316157702</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0118463667550219</v>
+        <v>-5.744923275215391e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9515015045932304</v>
+        <v>1.109737907159171e-27</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2956416055448756</v>
+        <v>2.666335463565881e-189</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0002853038083690621</v>
+        <v>0.215002266520107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0002065222439774334</v>
+        <v>-1.430366825497549</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.001024728490950543</v>
+        <v>-1.321097086412939</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.332945648580655e-06</v>
+        <v>-1.770087086711621</v>
       </c>
       <c r="E30" t="n">
-        <v>3.40748169876061e-26</v>
+        <v>6.829236529171356e-19</v>
       </c>
       <c r="F30" t="n">
-        <v>2.929797210017556e-189</v>
+        <v>4.716324655929569e-32</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6183111152624254</v>
+        <v>3.160028147234735e-96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.498081010380304</v>
+        <v>0.05092328819582011</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.348299908383787</v>
+        <v>-0.1269316250135933</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.792452633138495</v>
+        <v>-0.101891703254202</v>
       </c>
       <c r="E31" t="n">
-        <v>3.579271126905191e-23</v>
+        <v>0.4066963646715668</v>
       </c>
       <c r="F31" t="n">
-        <v>2.513681811996031e-33</v>
+        <v>0.005441167039056066</v>
       </c>
       <c r="G31" t="n">
-        <v>1.476224991127521e-100</v>
+        <v>0.003082139132226142</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.05290336901679508</v>
+        <v>5.918815206015957e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1211125100060971</v>
+        <v>2.545643359344029e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1171307074915146</v>
+        <v>6.651367203420052e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5853568799367036</v>
+        <v>0.00448785873179382</v>
       </c>
       <c r="F32" t="n">
-        <v>0.008851860195966822</v>
+        <v>0.131605337700413</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0007289863247486861</v>
+        <v>5.733908885689506e-11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.609424297607331e-05</v>
+        <v>0.004384079467573314</v>
       </c>
       <c r="C33" t="n">
-        <v>3.77022519401864e-05</v>
+        <v>-0.006122823689110807</v>
       </c>
       <c r="D33" t="n">
-        <v>7.054498601854968e-05</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
+        <v>-0.04084085194973278</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9115491857866408</v>
+      </c>
       <c r="F33" t="n">
-        <v>0.004781099178591651</v>
+        <v>0.8293530542679164</v>
       </c>
       <c r="G33" t="n">
-        <v>8.466314260134818e-14</v>
+        <v>0.02329785969988543</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02332764286085324</v>
+        <v>-0.08010204662595</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.02726196883547352</v>
+        <v>-0.1420131540059583</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.05057813167192704</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+        <v>-0.1313960231084941</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.02296196810957838</v>
+      </c>
       <c r="F34" t="n">
-        <v>0.2939944163304986</v>
+        <v>6.628495866199125e-09</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003226577424484301</v>
+        <v>3.869275277187699e-19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.07277623654617547</v>
+        <v>-9.901056207735883e-09</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1094094638935664</v>
+        <v>-4.421907104855282e-09</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1219787571892132</v>
+        <v>5.382458588421155e-09</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06367486773621084</v>
+        <v>0.4387865544567228</v>
       </c>
       <c r="F35" t="n">
-        <v>9.870459259025749e-08</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+        <v>0.5913395531971942</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3219534695096293</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-6.451439662043592e-09</v>
+        <v>-0.02165874073237769</v>
       </c>
       <c r="C36" t="n">
-        <v>-4.91706758824156e-10</v>
+        <v>0.007426245167827205</v>
       </c>
       <c r="D36" t="n">
-        <v>7.004484070288434e-09</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
+        <v>0.002055029109597871</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.01110967448886798</v>
+      </c>
       <c r="F36" t="n">
-        <v>0.9422924760669493</v>
+        <v>0.1727146372512861</v>
       </c>
       <c r="G36" t="n">
-        <v>1.987671570029585e-51</v>
+        <v>0.6284934136937078</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02050737853439591</v>
+        <v>-0.009898307656376145</v>
       </c>
       <c r="C37" t="n">
-        <v>0.008888870702718037</v>
+        <v>0.01107385054349494</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0005945970648302471</v>
+        <v>0.004363488489249966</v>
       </c>
       <c r="E37" t="n">
-        <v>2.021742780017995e-05</v>
+        <v>0.2353440970678013</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0753990818177734</v>
+        <v>0.04837606362645711</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8761490997812978</v>
+        <v>0.326602189603979</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.007749691016832413</v>
+        <v>4.064349638708802</v>
       </c>
       <c r="C38" t="n">
-        <v>0.009548025707356517</v>
+        <v>-0.2100581029285288</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001095290468204705</v>
+        <v>-0.6693383079000976</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1765896347578187</v>
+        <v>0.00106957905736352</v>
       </c>
       <c r="F38" t="n">
-        <v>0.05395543881497909</v>
+        <v>0.8392053110198321</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7757016865748594</v>
+        <v>0.4468352334843374</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.435265099835489</v>
+        <v>-1.235861329374733</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.09617103215629107</v>
+        <v>0.207754411858809</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.5895388960662857</v>
+        <v>-0.7001398036160865</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2775519542117844</v>
+        <v>0.1778953799535646</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9080265064692888</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+        <v>0.7442004362088923</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1299039715213277</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.005223971561196766</v>
+        <v>-1.904208126395897</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.4814408481598126</v>
+        <v>-0.1594961897622457</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.124526922068461</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
+        <v>0.547000305409526</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.07098212605605995</v>
+      </c>
       <c r="F40" t="n">
-        <v>0.3380377599056247</v>
+        <v>0.8230035174930128</v>
       </c>
       <c r="G40" t="n">
-        <v>9.657554758638982e-30</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-1.815341825902276</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-0.159217071601626</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5311703770693649</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.2740893591399371</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.8158933073998624</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.3180582002077695</v>
+        <v>0.1128930416622323</v>
       </c>
     </row>
   </sheetData>
@@ -6654,7 +6497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6706,17 +6549,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.581600882359483</v>
+        <v>0.7906643507969734</v>
       </c>
       <c r="C2" t="n">
-        <v>1.633784451258273</v>
+        <v>1.687498141932462</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2175032038461078</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>0.09844197247313161</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6072770913460707</v>
+      </c>
       <c r="F2" t="n">
-        <v>0.1316863479813838</v>
+        <v>0.003756564563846473</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -6727,22 +6572,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1418557070239831</v>
+        <v>-0.007657162941527582</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003949863917772677</v>
+        <v>0.005445252230218398</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2022724831337025</v>
+        <v>-0.2454462948786252</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7033547978934165</v>
+        <v>0.9843063511779641</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9973147417470126</v>
+        <v>0.9754350913845932</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0583454052023955</v>
+        <v>0.1500687826045563</v>
       </c>
     </row>
     <row r="4">
@@ -6752,22 +6597,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002944277756563546</v>
+        <v>-0.3223592007465321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1919091868905533</v>
+        <v>0.04053554499170479</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4662472107368402</v>
+        <v>-0.3650587746063526</v>
       </c>
       <c r="E4" t="n">
-        <v>0.997205532941132</v>
+        <v>0.5357263239958729</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4540589051181055</v>
+        <v>0.8811307000022056</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0305413613463927</v>
+        <v>0.08986571077474448</v>
       </c>
     </row>
     <row r="5">
@@ -6777,21 +6622,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004268009673531101</v>
+        <v>-0.1581765972690348</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1204214544410784</v>
+        <v>-0.2312104434980787</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.274978129819209</v>
+        <v>-0.3290576555780543</v>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>0.5570700269844577</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.02274606572383641</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6800,20 +6641,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5698380067118411</v>
+        <v>0.7015503322116599</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2163485090604546</v>
+        <v>0.08849420353469667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2132134824109841</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>0.1786346097149495</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.001745796851285632</v>
+      </c>
       <c r="F6" t="n">
-        <v>0.5351006858271163</v>
+        <v>0.8074628932631224</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2299299254522903</v>
+        <v>0.1396771420093678</v>
       </c>
     </row>
     <row r="7">
@@ -6823,22 +6666,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4110601520415103</v>
+        <v>-0.5052128490828932</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4557523217017222</v>
+        <v>-0.4565247844854033</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4871367590130345</v>
+        <v>-0.4859181538463959</v>
       </c>
       <c r="E7" t="n">
-        <v>0.483774725134873</v>
+        <v>0.2225890961342436</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006417883733298574</v>
+        <v>0.02720717075242146</v>
       </c>
       <c r="G7" t="n">
-        <v>9.374069719487725e-05</v>
+        <v>0.008145742714795876</v>
       </c>
     </row>
     <row r="8">
@@ -6848,20 +6691,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5698849661600847</v>
+        <v>0.4802348618080196</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01771823596752712</v>
+        <v>0.06158570426507618</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01801562845967025</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4182958896402047</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>-0.07727035444371641</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.7444458918647767</v>
+      </c>
       <c r="G8" t="n">
-        <v>0.8879356752107921</v>
+        <v>0.5987418605493353</v>
       </c>
     </row>
     <row r="9">
@@ -6871,20 +6714,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.401081356397285</v>
+        <v>0.3962278500606219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1982744794031658</v>
+        <v>0.08040177021833515</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08904288586952018</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>-0.1410569821504188</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.001269804008134196</v>
+      </c>
       <c r="F9" t="n">
-        <v>0.1103787615802059</v>
+        <v>0.5724246491542024</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4156176272461733</v>
+        <v>0.2046286522761995</v>
       </c>
     </row>
     <row r="10">
@@ -6894,22 +6739,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3618256720443903</v>
+        <v>-0.3654924027691562</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1447614179148264</v>
+        <v>0.05474398284961167</v>
       </c>
       <c r="D10" t="n">
-        <v>0.135903156314002</v>
+        <v>0.1408358312101607</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3200569556335111</v>
+        <v>0.0769897748662119</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2062282503845356</v>
+        <v>0.6113420780474403</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05947084258317528</v>
+        <v>0.09849261500451988</v>
       </c>
     </row>
     <row r="11">
@@ -6919,20 +6764,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.082538143011964</v>
+        <v>1.251315430427347</v>
       </c>
       <c r="C11" t="n">
-        <v>1.576979549055694</v>
+        <v>1.562165026704761</v>
       </c>
       <c r="D11" t="n">
-        <v>1.3596783276322</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>1.404635969154351</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0003670116631737708</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.112074616512628e-31</v>
+        <v>5.411912893785155e-15</v>
       </c>
       <c r="G11" t="n">
-        <v>9.239639238190843e-44</v>
+        <v>2.910153173981524e-13</v>
       </c>
     </row>
     <row r="12">
@@ -6942,22 +6789,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6083508306544081</v>
+        <v>0.6462852407658776</v>
       </c>
       <c r="C12" t="n">
-        <v>1.419019496318716</v>
+        <v>1.458187617419901</v>
       </c>
       <c r="D12" t="n">
-        <v>2.123130694327411</v>
+        <v>2.210866762868031</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07572963778872228</v>
+        <v>0.05397064606263309</v>
       </c>
       <c r="F12" t="n">
-        <v>7.864476523550072e-08</v>
+        <v>4.391492337776504e-11</v>
       </c>
       <c r="G12" t="n">
-        <v>4.145286535691079e-30</v>
+        <v>2.36325587340263e-19</v>
       </c>
     </row>
     <row r="13">
@@ -6967,22 +6814,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7716371477750248</v>
+        <v>0.799814212845676</v>
       </c>
       <c r="C13" t="n">
-        <v>1.247244777211883</v>
+        <v>1.137410329253805</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7652332412841708</v>
+        <v>0.7070508679531596</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00427928582489134</v>
+        <v>0.04238015505986369</v>
       </c>
       <c r="F13" t="n">
-        <v>1.042405553760381e-21</v>
+        <v>2.749689041622756e-09</v>
       </c>
       <c r="G13" t="n">
-        <v>2.082586824788414e-07</v>
+        <v>0.0005903119028410362</v>
       </c>
     </row>
     <row r="14">
@@ -6992,22 +6839,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.588063474439147</v>
+        <v>1.507525005924059</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8363671682021284</v>
+        <v>0.7102277631698236</v>
       </c>
       <c r="D14" t="n">
-        <v>1.91115860594484</v>
+        <v>1.938333576665473</v>
       </c>
       <c r="E14" t="n">
-        <v>2.331171679984298e-09</v>
+        <v>1.235056704006348e-17</v>
       </c>
       <c r="F14" t="n">
-        <v>1.83201888152575e-08</v>
+        <v>1.796414573803989e-09</v>
       </c>
       <c r="G14" t="n">
-        <v>2.645308955660139e-66</v>
+        <v>2.266821241898683e-48</v>
       </c>
     </row>
     <row r="15">
@@ -7017,20 +6864,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6690694517514627</v>
+        <v>0.8285183995321144</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7363290112283521</v>
+        <v>0.9025467233477333</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5764841640142139</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>0.7713711136425052</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2902614425273536</v>
+      </c>
       <c r="F15" t="n">
-        <v>0.09683769670958994</v>
+        <v>0.06045881055106891</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01325689430849423</v>
+        <v>0.05572335617423984</v>
       </c>
     </row>
     <row r="16">
@@ -7040,22 +6889,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2246265735695143</v>
+        <v>-0.2283115639275993</v>
       </c>
       <c r="C16" t="n">
-        <v>0.498207405048918</v>
+        <v>0.5062411460603292</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3233712174006433</v>
+        <v>0.4141595683904609</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006191232581393836</v>
+        <v>0.5964272598001312</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002642651596911555</v>
+        <v>0.01033497828271069</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01895110387389898</v>
+        <v>0.02491265766473973</v>
       </c>
     </row>
     <row r="17">
@@ -7065,22 +6914,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.393426697758257</v>
+        <v>0.4795879204223432</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6426252727248408</v>
+        <v>-0.5826053512703926</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9424291829844292</v>
+        <v>-0.7742239831220334</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999775228245</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999912979868</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9999999999999983</v>
+        <v>0.9999999965216434</v>
       </c>
     </row>
     <row r="18">
@@ -7090,20 +6939,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2373715347668915</v>
+        <v>-0.2517360700853093</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1899196433813458</v>
+        <v>0.09184078575853609</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4738805331263381</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+        <v>0.4651430252375974</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.412852465507083</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.2928867821920641</v>
+        <v>0.6194795943287794</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001435202878614111</v>
+        <v>0.001458191215886007</v>
       </c>
     </row>
     <row r="19">
@@ -7113,22 +6964,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7586599406372766</v>
+        <v>0.5254375820728422</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01672144435003526</v>
+        <v>0.07701323839924658</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5421925698910283</v>
+        <v>0.5810515283982927</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2468481102606247</v>
+        <v>0.245114249809527</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9454019582512353</v>
+        <v>0.7943305177324456</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004352703852846666</v>
+        <v>0.01379851054918102</v>
       </c>
     </row>
     <row r="20">
@@ -7138,20 +6989,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3065399886063124</v>
+        <v>0.517196982395796</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5572991029270699</v>
+        <v>-0.5164882427360731</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1424961560442703</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
+        <v>0.09042117252236311</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.305682032984738</v>
+      </c>
       <c r="F20" t="n">
-        <v>0.04194944272176953</v>
+        <v>0.1445296912007741</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5741279208287789</v>
+        <v>0.7167582301204752</v>
       </c>
     </row>
     <row r="21">
@@ -7161,22 +7014,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9615080973826012</v>
+        <v>0.4179446370701843</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1151948463295951</v>
+        <v>-0.05452732376940968</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1899880040907422</v>
+        <v>0.3141672551114788</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03055939347083977</v>
+        <v>0.3398888666797254</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7908285996338099</v>
+        <v>0.892406442772155</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5635041373985913</v>
+        <v>0.1642580658803251</v>
       </c>
     </row>
     <row r="22">
@@ -7186,20 +7039,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.9522908839644303</v>
+        <v>-1.59048517240142</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5302935574215557</v>
+        <v>-0.8297928655311194</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.257469240095899</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>-1.319848527615933</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0009411331284587205</v>
+      </c>
       <c r="F22" t="n">
-        <v>0.136543678858272</v>
+        <v>0.005130986888973829</v>
       </c>
       <c r="G22" t="n">
-        <v>1.144449622978458e-06</v>
+        <v>2.889963889467647e-09</v>
       </c>
     </row>
     <row r="23">
@@ -7209,22 +7064,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3934222159090668</v>
+        <v>0.4795801681844485</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.6426232174035655</v>
+        <v>-0.5826026167207099</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9424295742674828</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9999999999999998</v>
-      </c>
+        <v>-0.7742246027638467</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999912980276</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9999999999999983</v>
+        <v>0.9999999965235794</v>
       </c>
     </row>
     <row r="24">
@@ -7234,437 +7087,1435 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6247645314937631</v>
+        <v>0.2184328264475485</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2158697682237214</v>
+        <v>-0.061483746711891</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2652917603042151</v>
+        <v>0.323440073231697</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1288750398184128</v>
+        <v>0.2013359622746143</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3213215665606953</v>
+        <v>0.6141385465883302</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1182888137520094</v>
+        <v>6.024733551128244e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+Matura]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4810938066541082</v>
+        <v>1.067727131833668</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.06028386093849927</v>
+        <v>0.1029094050736062</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3666303701317157</v>
+        <v>0.550765283563137</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2084584421405701</v>
+        <v>8.542429522142795e-08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6650810496614876</v>
+        <v>0.429762678862829</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001942058421489894</v>
+        <v>8.725953769130321e-09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.277466316032536</v>
+        <v>-1.848009442360632</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2007719478524109</v>
+        <v>-0.8516999994954115</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5331524215123189</v>
+        <v>-0.7916151418240552</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001259090504641859</v>
+        <v>0.07453154730264716</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1221037262786853</v>
+        <v>0.0214371681235827</v>
       </c>
       <c r="G26" t="n">
-        <v>3.379701147661234e-09</v>
+        <v>0.008913259271548624</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.3191027098372929</v>
+        <v>-0.224462935906928</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5976720995919956</v>
+        <v>0.1440398039704485</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.7519100196024195</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.6240561059165064</v>
-      </c>
+        <v>0.3490614722790225</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.09769192866183853</v>
+        <v>0.07545690959651109</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01257262617480607</v>
+        <v>2.491973618069825e-08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.3399918211354762</v>
+        <v>0.001246015280507515</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1332200685154793</v>
+        <v>-0.004661339300725922</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3527901158603677</v>
+        <v>-0.01183249206931256</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0007559205939839992</v>
+        <v>0.8318447097556643</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1550001034456963</v>
+        <v>0.3040553348095759</v>
       </c>
       <c r="G28" t="n">
-        <v>7.876341931296434e-07</v>
+        <v>2.404046717805569e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0005769281451058037</v>
+        <v>-0.000206664587085812</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.006110282449330354</v>
+        <v>-0.001023675908989452</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01309313378563004</v>
+        <v>-2.411966135595305e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9615319082868632</v>
+        <v>4.70148831011381e-22</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1957183284549885</v>
+        <v>1.730695954969906e-194</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0003894347264785161</v>
+        <v>0.7100871771715076</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarAvailable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0002184894356154618</v>
+        <v>-1.504436279209902</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0010152507936772</v>
+        <v>-1.359667301505368</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.005699500335058e-07</v>
+        <v>-1.784097227658089</v>
       </c>
       <c r="E30" t="n">
-        <v>1.906010175427559e-24</v>
+        <v>8.096164674561073e-19</v>
       </c>
       <c r="F30" t="n">
-        <v>2.806459783083032e-205</v>
+        <v>1.568781477628319e-29</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8600704509248766</v>
+        <v>4.379637658100262e-93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.443923601683402</v>
+        <v>0.05311547384351895</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.288731841534754</v>
+        <v>-0.119446475763522</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.773077310105456</v>
+        <v>-0.1182104239505906</v>
       </c>
       <c r="E31" t="n">
-        <v>2.321378609877624e-25</v>
+        <v>0.4252288557895118</v>
       </c>
       <c r="F31" t="n">
-        <v>9.19450360659572e-31</v>
+        <v>0.01329498041518183</v>
       </c>
       <c r="G31" t="n">
-        <v>1.367388084555691e-93</v>
+        <v>0.00104750054158019</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.00650165664412252</v>
+        <v>1.641630519168734e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0915002370844598</v>
+        <v>3.876669235639735e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1044879619889132</v>
+        <v>6.966629528876015e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9649115419863067</v>
+        <v>0.6966126233560184</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05051119721792738</v>
+        <v>0.07153900587462024</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001510274045947288</v>
+        <v>0.0001933038074466571</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.725795372978377e-05</v>
+        <v>0.02318623250449022</v>
       </c>
       <c r="C33" t="n">
-        <v>2.675672303726356e-05</v>
+        <v>-0.02702893056858546</v>
       </c>
       <c r="D33" t="n">
-        <v>6.182470555991111e-05</v>
+        <v>-0.04994888574697182</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5497857596106275</v>
+        <v>0.7210011731240906</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08107061511058521</v>
+        <v>0.4288560329080475</v>
       </c>
       <c r="G33" t="n">
-        <v>1.284054473485768e-14</v>
+        <v>0.103906205942215</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.007813737704005902</v>
+        <v>-0.072816347413681</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.02355954625508711</v>
+        <v>-0.109697354211001</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.03865037368751454</v>
+        <v>-0.1222918725493995</v>
       </c>
       <c r="E34" t="n">
-        <v>0.957218318736768</v>
+        <v>0.2800416653849894</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4363527939422779</v>
+        <v>0.001585293680983264</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1240352952862737</v>
+        <v>0.0004454879055384785</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.07302059100824435</v>
+        <v>-6.580893702303471e-09</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1180328606994692</v>
+        <v>-6.159526629098937e-10</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.14072358211765</v>
+        <v>7.207007366699256e-09</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>4.47285390918795e-05</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.582777849807624e-10</v>
-      </c>
+        <v>0.9093419215170665</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.176789635923142e-08</v>
+        <v>-0.02046953883870632</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.457003842400806e-09</v>
+        <v>0.008867837427764837</v>
       </c>
       <c r="D36" t="n">
-        <v>3.864078573979117e-09</v>
+        <v>0.000403443882719981</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6865521356757449</v>
+        <v>0.1446713346319445</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7676976017108463</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.597213352991304</v>
-      </c>
+        <v>0.1913496599915643</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02061046719821842</v>
+        <v>-0.007692174706000417</v>
       </c>
       <c r="C37" t="n">
-        <v>0.007912925138743879</v>
+        <v>0.009532733362605426</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.00106017435439469</v>
+        <v>0.0009733725428457433</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2162983361067694</v>
+        <v>0.6325057702011179</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08971318352642431</v>
+        <v>0.2402027525991001</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8015434871256821</v>
+        <v>0.873105372183776</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.01131720677808847</v>
+        <v>4.41117320722634</v>
       </c>
       <c r="C38" t="n">
-        <v>0.008933362816904574</v>
+        <v>-0.1407091210797943</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001256016789499169</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
+        <v>-0.5645074175382675</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.191636519181066e-08</v>
+      </c>
       <c r="F38" t="n">
-        <v>0.05331907201714113</v>
+        <v>0.879285744604688</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7775263001772181</v>
+        <v>0.3457037667478888</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.533854350901438</v>
+        <v>-0.0002125034672208386</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2419619762845651</v>
+        <v>-0.4943360387534378</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.03421480502025871</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
+        <v>-1.092174492290239</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9998532013107438</v>
+      </c>
       <c r="F39" t="n">
-        <v>0.8087654126915658</v>
+        <v>0.4729890413793838</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9732012059527102</v>
+        <v>0.0519166474674334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>LU_Comm_origin</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-1.795117597345989</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.1376650347489307</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5177551449033228</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.02813177692798186</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7876769381928466</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>bike</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>walk</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>transit</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bike_p</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>walk_p</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>transit_p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.559788963924492</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.591503152294454</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2357721163455504</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2090852044057436</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02451477794014022</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Daytime Off-Peak]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1395843828306063</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.002376743912499912</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.2003930521376605</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4679032266645322</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.984898491478196</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.06220341079093296</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Evening]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.945811604763578e-05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1813947555245355</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.463798106293882</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9999095383138832</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4800221216127076</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03283402296443338</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Lunch]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.00772217932661399</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1251994949213797</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.272577293485128</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9662714217304015</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4069633079104732</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.132234940310123e-06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.Nighttime Off-Peak]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5854621083751306</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.252994883905426</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.203809487742741</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.144072530265153</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5120208311376107</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2524951207664339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Trip_Time[T.PM Rush]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.4137138077953347</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.4615159501219321</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4838291638817948</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.07180142034851046</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.002041880879467364</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.837592457692051e-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Season[T.Spring]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5714161652567726</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.01104211791695508</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.01982166862966833</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.003385286721282222</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9496746583497503</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8805333326797886</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Season[T.Summer]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4023609603328634</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2002804881389839</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.08959153532339846</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03222705443219746</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1863241368369688</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4537029573029321</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Season[T.Winter]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.362170603262949</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1440122191015295</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1353451678465835</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.007673330001257386</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1730552629774711</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.08923338510717718</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.085456538288633</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.575603076659089</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.356352503261735</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.000364449092278628</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.737668439369384e-19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.175684244953571e-15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔School]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6155759288200949</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.424903281567917</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.116200042640132</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1549189895312878</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.600673134217803e-07</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.099838838694805e-21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7771790999717204</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.253882960758449</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7590159571523357</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01970269227654921</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.386046952909319e-11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.095224758147791e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Home↔Work]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.590962548282616</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8350660038705922</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.90772373517428</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.040346813553235e-06</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.846669643451205e-05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.043027162155101e-25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Trip_Purpose_Agg[T.Other]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6728831099509407</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7314917142083092</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5756143814165174</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3447402301323694</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1192925283852888</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1291368192373199</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Occupation[T.Other]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.2179878616333229</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5096283374487164</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3170871203346769</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4347846201257171</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.002225261379381092</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.02332108123110151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Occupation[T.Pre-School]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3916092343929573</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.6389123557668083</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.9414879215813646</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9999999924709363</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0.9999999962866426</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Occupation[T.Retired]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.2297529649478028</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1996796264906384</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4670921660345161</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4079693711668841</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2769640660650036</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.001431553359698799</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Occupation[T.Student_3rdLevel]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7496437294516526</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.00302597480500508</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5482257088456366</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.02435038036889477</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9909620315882612</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.004038498013917228</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Occupation[T.Student_School]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3998784335436831</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.382312800660725</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.07772600545427073</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.359193468091013</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2505637773330578</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7386636443414505</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Education[T.Elementary]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8652014346059301</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.05354609823598204</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2555587036243146</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1114536376047808</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8993627751015028</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3847879929804294</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Education[T.No diploma yet]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.038902838442529</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.6890103802126581</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.192797278666124</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.05116335924429478</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02511056681982262</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8.989455860409826e-07</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Education[T.Pre-School]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3915956303884635</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.6389126889549113</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.941487667676449</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0.9999999962740945</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Education[T.Secondary]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.510041000624633</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00262233420117895</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3428062704043987</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0225511440189997</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.983889983371254</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0006099615487386091</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.282006913544677</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2108704876165439</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5282467046363711</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.37741650785457e-09</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1036137131558683</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.308818822860958e-07</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Education[T.Unknown]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.3277213715471131</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.6094166890904625</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.7461105064569938</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6078696193927868</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1003620465414687</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01387433755398428</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.3390829357630801</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1368545513044667</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.3526239553446254</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01365524710316865</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1512739231934373</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.070479976009245e-06</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.0006093794205581952</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.005916989390036343</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.01309650018755017</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9318696998258316</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2524161252907888</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.000431405929879878</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0002184386504054021</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.001013337916286015</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-5.838498288638868e-07</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.975431654642935e-27</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.624604288497403e-188</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9006613340685745</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CarAvailable</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.448784945385686</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.299516939779994</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1.768672181387923</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.077896360103412e-20</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.442192123345928e-31</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.087011847210872e-93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.007401132555025828</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.08964085907701365</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.1052859028843188</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.908242513988754</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.05286954946343447</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.002918480910358626</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.738473262673119e-05</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.798604271119085e-05</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6.155007305842096e-05</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.125083773540695</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.156848849081779</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0001475250907927272</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.00777435198925001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.0231874177025738</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.03831588665354039</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8724383018358493</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4527043117466605</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1337092912763785</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.07306493412859032</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.1180140044157394</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.1409403767404984</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.03659287452133611</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.088106086243669e-06</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9.771227180375144e-17</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.193289908770282e-08</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.635015814722672e-09</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.98485640979941e-09</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3380077297684052</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.7255786596575928</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.4518542379837925</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.02051594402616824</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.007951819131429278</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.001154958810618869</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.002261956715753672</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.08721684202079795</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.6064916580952071</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.01122326176167656</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.00900797834050733</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.001194090741132544</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1644616395210154</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.09323675132724597</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7494897721562428</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4.522814138160757</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.2082009407991703</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.02512575875952805</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0009251724305956574</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8382172949754522</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9745524980226825</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>LU_UrbFab_origin</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>-1.253044465290844</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.3229217675997221</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.8299726554874023</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2000799946702022</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.6211396419648354</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1034105410863746</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LU_Comm_origin</t>
+        </is>
+      </c>
       <c r="B40" t="n">
-        <v>-1.249503206734139</v>
+        <v>-1.527082232295858</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3046663500801811</v>
+        <v>-0.2470456563014856</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.8424847472059833</v>
+        <v>0.4500611028794372</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4658212100184335</v>
+        <v>0.1549896119533717</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3306301033227802</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-1.552065946911084</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-0.2915019532714365</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.4614545223136938</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>0.6912337434178797</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.3719805633188047</v>
+        <v>0.6998265217755237</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.2970299359033454</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/mode_MNLR/Wien.xlsx
+++ b/outputs/ML_Results/mode_MNLR/Wien.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ45805465" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ48181386" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ51545763" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ55438178" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ58425793" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ01637043" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ04707300" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ07778789" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ10996259" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ00292799" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ02565195" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ04857234" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ07258676" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ09568558" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ11813472" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ14007275" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ16246633" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ18467352" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
